--- a/gams_results/gams_salt_st1_25m_forward.xlsx
+++ b/gams_results/gams_salt_st1_25m_forward.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="273">
   <si>
     <t>expr</t>
   </si>
@@ -151,159 +151,6 @@
     <t>AMO_LAG_2</t>
   </si>
   <si>
-    <t>QMinho + datetime</t>
-  </si>
-  <si>
-    <t>QMinho + monthofyear</t>
-  </si>
-  <si>
-    <t>QMinho + Qs</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_3</t>
-  </si>
-  <si>
-    <t>QMinho + UI</t>
-  </si>
-  <si>
-    <t>QMinho + UI_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + UI_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + NAO</t>
-  </si>
-  <si>
-    <t>QMinho + NAO_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + NAO_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + EA</t>
-  </si>
-  <si>
-    <t>QMinho + EA_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + EA_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + EAWR</t>
-  </si>
-  <si>
-    <t>QMinho + EAWR_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + EAWR_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + SCAND</t>
-  </si>
-  <si>
-    <t>QMinho + SCAND_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + SCAND_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + WP</t>
-  </si>
-  <si>
-    <t>QMinho + WP_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + WP_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + AMO</t>
-  </si>
-  <si>
-    <t>QMinho + AMO_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + AMO_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + datetime</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + monthofyear</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + UI</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + UI_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + UI_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + NAO</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + NAO_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + NAO_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EA</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EA_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EA_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EAWR</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EAWR_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + EAWR_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + SCAND</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + SCAND_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + SCAND_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + WP</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + WP_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + WP_LAG_2</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + AMO</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + AMO_LAG_1</t>
-  </si>
-  <si>
-    <t>QMinho + Qs_CUMSUM_2 + AMO_LAG_2</t>
-  </si>
-  <si>
     <t>UI + datetime</t>
   </si>
   <si>
@@ -394,6 +241,81 @@
     <t>UI + AMO_LAG_2</t>
   </si>
   <si>
+    <t>UI + QMinho + datetime</t>
+  </si>
+  <si>
+    <t>UI + QMinho + monthofyear</t>
+  </si>
+  <si>
+    <t>UI + QMinho + Qs</t>
+  </si>
+  <si>
+    <t>UI + QMinho + Qs_LAG_1</t>
+  </si>
+  <si>
+    <t>UI + QMinho + Qs_LAG_2</t>
+  </si>
+  <si>
+    <t>UI + QMinho + Qs_CUMSUM_2</t>
+  </si>
+  <si>
+    <t>UI + QMinho + Qs_CUMSUM_3</t>
+  </si>
+  <si>
+    <t>UI + QMinho + NAO</t>
+  </si>
+  <si>
+    <t>UI + QMinho + NAO_LAG_1</t>
+  </si>
+  <si>
+    <t>UI + QMinho + NAO_LAG_2</t>
+  </si>
+  <si>
+    <t>UI + QMinho + EA</t>
+  </si>
+  <si>
+    <t>UI + QMinho + EA_LAG_1</t>
+  </si>
+  <si>
+    <t>UI + QMinho + EA_LAG_2</t>
+  </si>
+  <si>
+    <t>UI + QMinho + EAWR</t>
+  </si>
+  <si>
+    <t>UI + QMinho + EAWR_LAG_1</t>
+  </si>
+  <si>
+    <t>UI + QMinho + EAWR_LAG_2</t>
+  </si>
+  <si>
+    <t>UI + QMinho + SCAND</t>
+  </si>
+  <si>
+    <t>UI + QMinho + SCAND_LAG_1</t>
+  </si>
+  <si>
+    <t>UI + QMinho + SCAND_LAG_2</t>
+  </si>
+  <si>
+    <t>UI + QMinho + WP</t>
+  </si>
+  <si>
+    <t>UI + QMinho + WP_LAG_1</t>
+  </si>
+  <si>
+    <t>UI + QMinho + WP_LAG_2</t>
+  </si>
+  <si>
+    <t>UI + QMinho + AMO</t>
+  </si>
+  <si>
+    <t>UI + QMinho + AMO_LAG_1</t>
+  </si>
+  <si>
+    <t>UI + QMinho + AMO_LAG_2</t>
+  </si>
+  <si>
     <t>{'datetime': [0.058507058584539584]}</t>
   </si>
   <si>
@@ -493,159 +415,6 @@
     <t>{'AMO_LAG_2': [0.009184805134263946]}</t>
   </si>
   <si>
-    <t>{'QMinho': [0.4196680675474492], 'datetime': [0.058507058584539584]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'monthofyear': [0.04354143280931256]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs': [0.029494865409723098]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_LAG_1': [0.1333633496307118]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_LAG_2': [0.18185592363846698]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_3': [0.1382006006269723]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'UI': [0.15111917831446892]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'UI_LAG_1': [0.1277523776998892]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'UI_LAG_2': [0.02556487365963432]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'NAO': [0.009158998867428183]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'NAO_LAG_1': [0.009228237649278603]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'NAO_LAG_2': [0.009956653283414071]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'EA': [0.02441597709674292]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'EA_LAG_1': [0.013923068265116398]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'EA_LAG_2': [0.006623502572859963]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'EAWR': [0.0012788369831206513]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'EAWR_LAG_1': [0.019720800382983114]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'EAWR_LAG_2': [0.001901948677074482]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'SCAND': [0.02417147984147074]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'SCAND_LAG_1': [0.020559085016516123]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'SCAND_LAG_2': [0.002288730373336091]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'WP': [0.038147904464256234]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'WP_LAG_1': [0.11303306858918771]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'WP_LAG_2': [0.021221643545784836]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'AMO': [0.01694593783157889]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'AMO_LAG_1': [0.04009484971778708]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'AMO_LAG_2': [0.009184805134263946]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'datetime': [0.058507058584539584]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'monthofyear': [0.04354143280931256]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'UI': [0.15111917831446892]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'UI_LAG_1': [0.1277523776998892]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'UI_LAG_2': [0.02556487365963432]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'NAO': [0.009158998867428183]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'NAO_LAG_1': [0.009228237649278603]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'NAO_LAG_2': [0.009956653283414071]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'EA': [0.02441597709674292]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'EA_LAG_1': [0.013923068265116398]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'EA_LAG_2': [0.006623502572859963]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'EAWR': [0.0012788369831206513]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'EAWR_LAG_1': [0.019720800382983114]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'EAWR_LAG_2': [0.001901948677074482]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'SCAND': [0.02417147984147074]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'SCAND_LAG_1': [0.020559085016516123]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'SCAND_LAG_2': [0.002288730373336091]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'WP': [0.038147904464256234]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'WP_LAG_1': [0.11303306858918771]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'WP_LAG_2': [0.021221643545784836]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'AMO': [0.01694593783157889]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'AMO_LAG_1': [0.04009484971778708]}</t>
-  </si>
-  <si>
-    <t>{'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861], 'AMO_LAG_2': [0.009184805134263946]}</t>
-  </si>
-  <si>
     <t>{'UI': [0.15111917831446892], 'datetime': [0.058507058584539584]}</t>
   </si>
   <si>
@@ -736,6 +505,81 @@
     <t>{'UI': [0.15111917831446892], 'AMO_LAG_2': [0.009184805134263946]}</t>
   </si>
   <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'datetime': [0.058507058584539584]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'monthofyear': [0.04354143280931256]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'Qs': [0.029494865409723098]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'Qs_LAG_1': [0.1333633496307118]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'Qs_LAG_2': [0.18185592363846698]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'Qs_CUMSUM_2': [0.07462985354595861]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'Qs_CUMSUM_3': [0.1382006006269723]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'NAO': [0.009158998867428183]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'NAO_LAG_1': [0.009228237649278603]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'NAO_LAG_2': [0.009956653283414071]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'EA': [0.02441597709674292]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'EA_LAG_1': [0.013923068265116398]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'EA_LAG_2': [0.006623502572859963]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'EAWR': [0.0012788369831206513]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'EAWR_LAG_1': [0.019720800382983114]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'EAWR_LAG_2': [0.001901948677074482]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'SCAND': [0.02417147984147074]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'SCAND_LAG_1': [0.020559085016516123]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'SCAND_LAG_2': [0.002288730373336091]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'WP': [0.038147904464256234]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'WP_LAG_1': [0.11303306858918771]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'WP_LAG_2': [0.021221643545784836]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'AMO': [0.01694593783157889]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'AMO_LAG_1': [0.04009484971778708]}</t>
+  </si>
+  <si>
+    <t>{'UI': [0.15111917831446892], 'QMinho': [0.4196680675474492], 'AMO_LAG_2': [0.009184805134263946]}</t>
+  </si>
+  <si>
     <t>[0.046819410442602516, 1.1102230246251565e-16]</t>
   </si>
   <si>
@@ -826,159 +670,6 @@
     <t>[0.5592045527154441, 1.1102230246251565e-16]</t>
   </si>
   <si>
-    <t>[1.1102230246251565e-16, 5.219077307894171e-05, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[4.157397759385617e-09, 2.4300247556396926e-06, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[5.551115123125783e-16, 0.06769067885888425, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.9872992140790302e-14, 0.0014353112427266668, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.06279249255257491, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0012727005654448176, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[3.3306690738754696e-15, 0.00042826754426206204, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.303549646220926e-05, 3.278566307329811e-11, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[3.755524780046926e-10, 0.27110593391857074, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[4.961193678099107e-10, 0.9547079644337798, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[3.220756994437579e-13, 0.1920272388554306, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.4865886299730846e-13, 0.4209172035108424, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[4.729550084903167e-14, 0.43558531863609595, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.13455911332494e-11, 0.3933338121295473, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.2545520178264269e-14, 0.9587474760345421, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[7.549516567451064e-15, 0.8846650747332995, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[4.884981308350689e-14, 0.9109868470983578, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.5210055437364645e-14, 0.0035027039923581915, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.2212453270876722e-14, 0.9976851001812778, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[5.928590951498336e-14, 0.007823811777853407, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1146639167236572e-13, 0.1209380562580592, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.9095836023552692e-14, 0.4852196818790224, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[5.551115123125783e-16, 0.7202365486701827, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.7763568394002505e-15, 0.05259377059237291, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.6201263381153694e-14, 0.5120709639724901, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.965094753586527e-14, 0.8370825891942203, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.1083135237631723e-13, 0.10881167530399383, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.2212453270876722e-15, 0.8806093631578695, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.01794057451064579, 5.39731206492533e-05, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.6630662402761232e-09, 0.1941753424626329, 1.1102230246251565e-16, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[0.00015803643165679393, 0.14239211973037091, 4.256884289510765e-09, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.9438448123642047e-07, 1.868319651809891e-05, 0.013258342053917183, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.6518436180289484e-07, 0.00032608907019515687, 0.6272388168143472, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0004678623632897727, 0.14221785889507366, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0010353374602577459, 0.5379033868458354, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0012339256069777704, 0.6303816604388824, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[2.6645352591003757e-15, 0.00024263006791935826, 0.1697863824958019, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0008378272528459796, 0.8692788628035655, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0011198872725028952, 0.9040753710216123, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0011941978184547564, 0.8855584712180805, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[3.4065868348420736e-08, 0.008843391440097936, 0.0006504332959516024, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0013417803778242865, 0.956186076961989, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0008067642954325827, 0.00894993397285715, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[5.519093970729472e-08, 0.0149220890910714, 0.15636718901239965, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0012237859257122619, 0.588721426888868, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.001258000127634884, 0.8077262828718319, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.27675647831893e-14, 0.0027634266933613816, 0.03213162714005524, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0010585244394135662, 0.5926786116820255, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0006540383296933516, 0.7016035462308092, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[1.1102230246251565e-16, 0.0003315217647710256, 0.03668384714072903, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
-    <t>[3.3306690738754696e-16, 0.00013323453708624644, 0.5058550949242315, 1.1102230246251565e-16]</t>
-  </si>
-  <si>
     <t>[1.1102230246251565e-16, 0.09840910584591933, 1.1102230246251565e-16]</t>
   </si>
   <si>
@@ -1067,6 +758,81 @@
   </si>
   <si>
     <t>[1.1102230246251565e-16, 0.05711390149943352, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[8.391265460261366e-11, 2.2471819890457212e-05, 0.08961092842871154, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.361411510776179e-08, 0.0001251109893969371, 2.631228568361621e-14, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[3.791048086565496e-08, 7.626475864064286e-05, 0.9812584627556764, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.2955185813012804e-09, 0.00017903698277621505, 0.21019463725545862, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[3.188616037874681e-11, 5.178233058278359e-05, 0.20200234995750443, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[4.256884844622277e-09, 0.00015803713607098757, 0.1423921185186331, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.2873772048394017e-09, 0.00017877587981773857, 0.11196659415129095, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.0595402333279935e-10, 2.1120193645196572e-05, 0.36093311084466495, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[9.151424062991964e-11, 3.3301987021117085e-05, 0.2524407189336566, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[7.651856925861011e-11, 5.791221864759333e-05, 0.6730772643667823, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.6567036631442988e-10, 4.0232767397840874e-05, 0.1964802680574046, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[6.750944248068436e-11, 5.655928202608074e-05, 0.7862545384011538, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[6.972666888316326e-11, 4.8795964127656966e-05, 0.8387759164728288, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[3.5915825868926277e-11, 7.781174580112626e-05, 0.9542855560101402, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[4.3339776212292236e-12, 2.899706478975972e-05, 4.097035175720798e-05, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.2898793144699994e-10, 6.430194897732999e-05, 0.9576201674893717, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[5.356675103485031e-10, 5.4853829654533115e-05, 0.011634638103461437, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[9.888845298178239e-11, 6.93242662447302e-05, 0.11086881399297088, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[1.1545320255379465e-11, 2.879427461444095e-05, 0.06654087873055725, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[5.135536440548094e-11, 3.266272860591446e-05, 0.5665639051987879, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[3.6924596713561186e-10, 9.4382889111011e-05, 0.20160279378718382, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[5.191747032284866e-11, 5.05547524581873e-05, 0.2580536952238853, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.465283532870899e-11, 6.247104620205057e-05, 0.40988948233445566, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.2539969890544853e-11, 6.736544799512689e-05, 0.03127220324787228, 1.1102230246251565e-16]</t>
+  </si>
+  <si>
+    <t>[2.9062308115612723e-12, 2.7812361160006738e-05, 0.12831704795400456, 1.1102230246251565e-16]</t>
   </si>
 </sst>
 </file>
@@ -1424,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M115"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1500,13 +1266,13 @@
         <v>0.3729518979858064</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="L2">
         <v>251</v>
       </c>
       <c r="M2" t="s">
-        <v>240</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1541,13 +1307,13 @@
         <v>0.3888392783760148</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="L3">
         <v>251</v>
       </c>
       <c r="M3" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1582,13 +1348,13 @@
         <v>0.3917253868425042</v>
       </c>
       <c r="K4" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="L4">
         <v>251</v>
       </c>
       <c r="M4" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1623,13 +1389,13 @@
         <v>0.371010061683517</v>
       </c>
       <c r="K5" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="L5">
         <v>251</v>
       </c>
       <c r="M5" t="s">
-        <v>243</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1664,13 +1430,13 @@
         <v>0.3672303275520529</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="L6">
         <v>251</v>
       </c>
       <c r="M6" t="s">
-        <v>244</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1705,13 +1471,13 @@
         <v>0.3807202599750977</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="L7">
         <v>251</v>
       </c>
       <c r="M7" t="s">
-        <v>245</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1746,13 +1512,13 @@
         <v>0.3703628329741587</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="L8">
         <v>251</v>
       </c>
       <c r="M8" t="s">
-        <v>246</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1787,13 +1553,13 @@
         <v>0.3403187114029152</v>
       </c>
       <c r="K9" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L9">
         <v>251</v>
       </c>
       <c r="M9" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1828,13 +1594,13 @@
         <v>0.3589925830210119</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="L10">
         <v>314</v>
       </c>
       <c r="M10" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1869,13 +1635,13 @@
         <v>0.3859117501739374</v>
       </c>
       <c r="K11" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="L11">
         <v>251</v>
       </c>
       <c r="M11" t="s">
-        <v>248</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1910,13 +1676,13 @@
         <v>0.3430858103535902</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="L12">
         <v>314</v>
       </c>
       <c r="M12" t="s">
-        <v>249</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1951,13 +1717,13 @@
         <v>0.3548439828039732</v>
       </c>
       <c r="K13" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="L13">
         <v>251</v>
       </c>
       <c r="M13" t="s">
-        <v>250</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1992,13 +1758,13 @@
         <v>0.3779475401933708</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="L14">
         <v>251</v>
       </c>
       <c r="M14" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -2033,13 +1799,13 @@
         <v>0.3794274108270206</v>
       </c>
       <c r="K15" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="L15">
         <v>251</v>
       </c>
       <c r="M15" t="s">
-        <v>251</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -2074,13 +1840,13 @@
         <v>0.3919614726028733</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="L16">
         <v>251</v>
       </c>
       <c r="M16" t="s">
-        <v>252</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -2115,13 +1881,13 @@
         <v>0.409644754356123</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="L17">
         <v>251</v>
       </c>
       <c r="M17" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -2156,13 +1922,13 @@
         <v>0.4007283475452058</v>
       </c>
       <c r="K18" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="L18">
         <v>251</v>
       </c>
       <c r="M18" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -2197,13 +1963,13 @@
         <v>0.3972621680718721</v>
       </c>
       <c r="K19" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="L19">
         <v>251</v>
       </c>
       <c r="M19" t="s">
-        <v>255</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -2238,13 +2004,13 @@
         <v>0.4041524993040832</v>
       </c>
       <c r="K20" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="L20">
         <v>251</v>
       </c>
       <c r="M20" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2279,13 +2045,13 @@
         <v>0.393341997120173</v>
       </c>
       <c r="K21" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="L21">
         <v>251</v>
       </c>
       <c r="M21" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2320,13 +2086,13 @@
         <v>0.3928328654478451</v>
       </c>
       <c r="K22" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="L22">
         <v>251</v>
       </c>
       <c r="M22" t="s">
-        <v>258</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2361,13 +2127,13 @@
         <v>0.3911077085067394</v>
       </c>
       <c r="K23" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="L23">
         <v>251</v>
       </c>
       <c r="M23" t="s">
-        <v>259</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2402,13 +2168,13 @@
         <v>1.245519490517931</v>
       </c>
       <c r="K24" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="L24">
         <v>251</v>
       </c>
       <c r="M24" t="s">
-        <v>241</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2443,13 +2209,13 @@
         <v>0.3923710534190968</v>
       </c>
       <c r="K25" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="L25">
         <v>251</v>
       </c>
       <c r="M25" t="s">
-        <v>260</v>
+        <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2484,13 +2250,13 @@
         <v>0.392798370585264</v>
       </c>
       <c r="K26" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="L26">
         <v>251</v>
       </c>
       <c r="M26" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2525,13 +2291,13 @@
         <v>0.3896003346192662</v>
       </c>
       <c r="K27" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="L27">
         <v>251</v>
       </c>
       <c r="M27" t="s">
-        <v>262</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2566,13 +2332,13 @@
         <v>0.3930087744826946</v>
       </c>
       <c r="K28" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="L28">
         <v>251</v>
       </c>
       <c r="M28" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2607,13 +2373,13 @@
         <v>0.3941131266243294</v>
       </c>
       <c r="K29" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="L29">
         <v>251</v>
       </c>
       <c r="M29" t="s">
-        <v>264</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2648,13 +2414,13 @@
         <v>0.383796110804985</v>
       </c>
       <c r="K30" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="L30">
         <v>251</v>
       </c>
       <c r="M30" t="s">
-        <v>265</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2689,13 +2455,13 @@
         <v>0.3958474453129222</v>
       </c>
       <c r="K31" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="L31">
         <v>251</v>
       </c>
       <c r="M31" t="s">
-        <v>266</v>
+        <v>214</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2730,13 +2496,13 @@
         <v>0.3829014157714507</v>
       </c>
       <c r="K32" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="L32">
         <v>251</v>
       </c>
       <c r="M32" t="s">
-        <v>267</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2771,13 +2537,13 @@
         <v>0.3819613002293087</v>
       </c>
       <c r="K33" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L33">
         <v>251</v>
       </c>
       <c r="M33" t="s">
-        <v>268</v>
+        <v>216</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2812,13 +2578,13 @@
         <v>0.3868919180935283</v>
       </c>
       <c r="K34" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="L34">
         <v>251</v>
       </c>
       <c r="M34" t="s">
-        <v>269</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2829,37 +2595,37 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>2375.127966707333</v>
+        <v>2198.612503993346</v>
       </c>
       <c r="D35">
-        <v>0.2904422647193513</v>
+        <v>0.3200889306696107</v>
       </c>
       <c r="E35">
-        <v>0.2894552134121171</v>
+        <v>0.3345478352733928</v>
       </c>
       <c r="F35">
-        <v>0.638767530037155</v>
+        <v>0.5935096196608595</v>
       </c>
       <c r="G35">
-        <v>0.3559419913962282</v>
+        <v>0.4033977559649914</v>
       </c>
       <c r="H35">
-        <v>-1176.817203967349</v>
+        <v>-1092.612929989983</v>
       </c>
       <c r="I35">
-        <v>0.2137651055488327</v>
+        <v>0.2011808287004884</v>
       </c>
       <c r="J35">
-        <v>0.2934869714130932</v>
+        <v>0.3321532395257065</v>
       </c>
       <c r="K35" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="L35">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="M35" t="s">
-        <v>270</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2870,37 +2636,37 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>1888.217230815672</v>
+        <v>2190.759945925304</v>
       </c>
       <c r="D36">
-        <v>0.2549643657008066</v>
+        <v>0.280449089201157</v>
       </c>
       <c r="E36">
-        <v>0.2671060929763682</v>
+        <v>0.3413464805639617</v>
       </c>
       <c r="F36">
-        <v>0.6632367865550226</v>
+        <v>0.5856817491193784</v>
       </c>
       <c r="G36">
-        <v>0.3293138547705996</v>
+        <v>0.4103674064074871</v>
       </c>
       <c r="H36">
-        <v>-932.6334409987006</v>
+        <v>-1087.047059018148</v>
       </c>
       <c r="I36">
-        <v>0.215700455372385</v>
+        <v>0.2066175179158703</v>
       </c>
       <c r="J36">
-        <v>0.352189773996805</v>
+        <v>0.3783844299392451</v>
       </c>
       <c r="K36" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="L36">
         <v>251</v>
       </c>
       <c r="M36" t="s">
-        <v>271</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2911,37 +2677,37 @@
         <v>47</v>
       </c>
       <c r="C37">
-        <v>1860.161554241407</v>
+        <v>2155.09486476901</v>
       </c>
       <c r="D37">
-        <v>0.2333147872787183</v>
+        <v>0.2621029907867504</v>
       </c>
       <c r="E37">
-        <v>0.246958412450629</v>
+        <v>0.3222084056434865</v>
       </c>
       <c r="F37">
-        <v>0.6864294268877533</v>
+        <v>0.6063926835174885</v>
       </c>
       <c r="G37">
-        <v>0.3069777132706734</v>
+        <v>0.3904252391591311</v>
       </c>
       <c r="H37">
-        <v>-920.2422455722236</v>
+        <v>-1070.927683352559</v>
       </c>
       <c r="I37">
-        <v>0.2206238143164518</v>
+        <v>0.2061124776388929</v>
       </c>
       <c r="J37">
-        <v>0.3576753458199732</v>
+        <v>0.3813504297346093</v>
       </c>
       <c r="K37" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="L37">
         <v>251</v>
       </c>
       <c r="M37" t="s">
-        <v>272</v>
+        <v>220</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2952,37 +2718,37 @@
         <v>48</v>
       </c>
       <c r="C38">
-        <v>2324.277705134231</v>
+        <v>2182.426387996833</v>
       </c>
       <c r="D38">
-        <v>0.3111133014530419</v>
+        <v>0.280275533477929</v>
       </c>
       <c r="E38">
-        <v>0.3103285422609635</v>
+        <v>0.3298059375067488</v>
       </c>
       <c r="F38">
-        <v>0.613381758181024</v>
+        <v>0.5984622427843945</v>
       </c>
       <c r="G38">
-        <v>0.3774394229015339</v>
+        <v>0.3984323581221244</v>
       </c>
       <c r="H38">
-        <v>-1144.019420888045</v>
+        <v>-1084.585319710206</v>
       </c>
       <c r="I38">
-        <v>0.2123080658084014</v>
+        <v>0.2055988199355127</v>
       </c>
       <c r="J38">
-        <v>0.3554979200091224</v>
+        <v>0.3707920644536579</v>
       </c>
       <c r="K38" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="L38">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="M38" t="s">
-        <v>273</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2993,37 +2759,37 @@
         <v>49</v>
       </c>
       <c r="C39">
-        <v>1797.548248775001</v>
+        <v>2215.733191149013</v>
       </c>
       <c r="D39">
-        <v>0.2364346878521727</v>
+        <v>0.283897456604054</v>
       </c>
       <c r="E39">
-        <v>0.2230309300342406</v>
+        <v>0.3389266114412856</v>
       </c>
       <c r="F39">
-        <v>0.7136261148110459</v>
+        <v>0.5890005921596675</v>
       </c>
       <c r="G39">
-        <v>0.2793097343612667</v>
+        <v>0.4079730113436946</v>
       </c>
       <c r="H39">
-        <v>-888.9742111289974</v>
+        <v>-1101.208378548463</v>
       </c>
       <c r="I39">
-        <v>0.2169367162653272</v>
+        <v>0.204992427184315</v>
       </c>
       <c r="J39">
-        <v>0.3407801866692164</v>
+        <v>0.3738444101021235</v>
       </c>
       <c r="K39" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="L39">
         <v>251</v>
       </c>
       <c r="M39" t="s">
-        <v>274</v>
+        <v>222</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -3034,37 +2800,37 @@
         <v>50</v>
       </c>
       <c r="C40">
-        <v>1796.42488067441</v>
+        <v>2169.668245001839</v>
       </c>
       <c r="D40">
-        <v>0.1809737948412734</v>
+        <v>0.2707527374382097</v>
       </c>
       <c r="E40">
-        <v>0.1876010591262506</v>
+        <v>0.3261650718223467</v>
       </c>
       <c r="F40">
-        <v>0.7570815502830943</v>
+        <v>0.6022664147961343</v>
       </c>
       <c r="G40">
-        <v>0.2400162720668443</v>
+        <v>0.394604101604092</v>
       </c>
       <c r="H40">
-        <v>-893.7862223854271</v>
+        <v>-1078.231439826278</v>
       </c>
       <c r="I40">
-        <v>0.2243941227019765</v>
+        <v>0.2054473063785659</v>
       </c>
       <c r="J40">
-        <v>0.3611844094521866</v>
+        <v>0.3764758527780807</v>
       </c>
       <c r="K40" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="L40">
         <v>251</v>
       </c>
       <c r="M40" t="s">
-        <v>275</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -3075,37 +2841,37 @@
         <v>51</v>
       </c>
       <c r="C41">
-        <v>2344.501335051494</v>
+        <v>2184.587551039055</v>
       </c>
       <c r="D41">
-        <v>0.3164906003727742</v>
+        <v>0.2810659052477245</v>
       </c>
       <c r="E41">
-        <v>0.31566208889717</v>
+        <v>0.3304573044786796</v>
       </c>
       <c r="F41">
-        <v>0.6077208903700286</v>
+        <v>0.5977796017778648</v>
       </c>
       <c r="G41">
-        <v>0.3832683093053513</v>
+        <v>0.3991153444719807</v>
       </c>
       <c r="H41">
-        <v>-1154.138029964889</v>
+        <v>-1085.654547093534</v>
       </c>
       <c r="I41">
-        <v>0.210386515175793</v>
+        <v>0.2055071479218235</v>
       </c>
       <c r="J41">
-        <v>0.3202021422919666</v>
+        <v>0.3705451272500825</v>
       </c>
       <c r="K41" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="L41">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="M41" t="s">
-        <v>276</v>
+        <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -3116,37 +2882,37 @@
         <v>52</v>
       </c>
       <c r="C42">
-        <v>2364.3490767572</v>
+        <v>2364.349076757194</v>
       </c>
       <c r="D42">
-        <v>0.3410854944446761</v>
+        <v>0.3410854944446781</v>
       </c>
       <c r="E42">
-        <v>0.3906756929787478</v>
+        <v>0.3906756929787492</v>
       </c>
       <c r="F42">
-        <v>0.5353041541304457</v>
+        <v>0.5353041541304443</v>
       </c>
       <c r="G42">
-        <v>0.4607810012831601</v>
+        <v>0.4607810012831616</v>
       </c>
       <c r="H42">
-        <v>-1172.598960073381</v>
+        <v>-1172.598960073378</v>
       </c>
       <c r="I42">
-        <v>0.2026050001670292</v>
+        <v>0.2026050001670303</v>
       </c>
       <c r="J42">
-        <v>0.3606995940163086</v>
+        <v>0.3606995940163047</v>
       </c>
       <c r="K42" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="L42">
         <v>251</v>
       </c>
       <c r="M42" t="s">
-        <v>277</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -3157,37 +2923,37 @@
         <v>53</v>
       </c>
       <c r="C43">
-        <v>1776.521841059926</v>
+        <v>2213.599638778765</v>
       </c>
       <c r="D43">
-        <v>0.2225600871063072</v>
+        <v>0.2945077018982378</v>
       </c>
       <c r="E43">
-        <v>0.2086897030374382</v>
+        <v>0.3353336020574046</v>
       </c>
       <c r="F43">
-        <v>0.730599607149571</v>
+        <v>0.5929847261894966</v>
       </c>
       <c r="G43">
-        <v>0.2628539951043165</v>
+        <v>0.4042683817312157</v>
       </c>
       <c r="H43">
-        <v>-879.3813921166018</v>
+        <v>-1100.701025449276</v>
       </c>
       <c r="I43">
-        <v>0.221161220992429</v>
+        <v>0.2053748392895256</v>
       </c>
       <c r="J43">
-        <v>0.3427929573118423</v>
+        <v>0.3629941635247697</v>
       </c>
       <c r="K43" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="L43">
         <v>251</v>
       </c>
       <c r="M43" t="s">
-        <v>278</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -3198,37 +2964,37 @@
         <v>54</v>
       </c>
       <c r="C44">
-        <v>1746.066389053831</v>
+        <v>2207.605861421884</v>
       </c>
       <c r="D44">
-        <v>0.205389890686512</v>
+        <v>0.2888737123530218</v>
       </c>
       <c r="E44">
-        <v>0.1841876035292254</v>
+        <v>0.3337051958636768</v>
       </c>
       <c r="F44">
-        <v>0.7601374357649909</v>
+        <v>0.594673254992614</v>
       </c>
       <c r="G44">
-        <v>0.2345228574708252</v>
+        <v>0.4025671402258573</v>
       </c>
       <c r="H44">
-        <v>-865.9501891846223</v>
+        <v>-1097.708968785539</v>
       </c>
       <c r="I44">
-        <v>0.2198544506452342</v>
+        <v>0.2023059926662467</v>
       </c>
       <c r="J44">
-        <v>0.3410074353174595</v>
+        <v>0.3662007716961504</v>
       </c>
       <c r="K44" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="L44">
         <v>251</v>
       </c>
       <c r="M44" t="s">
-        <v>279</v>
+        <v>227</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3239,37 +3005,37 @@
         <v>55</v>
       </c>
       <c r="C45">
-        <v>1798.256513591495</v>
+        <v>2291.240618701678</v>
       </c>
       <c r="D45">
-        <v>0.2108611542980649</v>
+        <v>0.3223374180479864</v>
       </c>
       <c r="E45">
-        <v>0.221706806405533</v>
+        <v>0.3637854363384871</v>
       </c>
       <c r="F45">
-        <v>0.715255585774809</v>
+        <v>0.5631042990203387</v>
       </c>
       <c r="G45">
-        <v>0.2778687278044013</v>
+        <v>0.4335755025706658</v>
       </c>
       <c r="H45">
-        <v>-889.5768361646999</v>
+        <v>-1137.910912869475</v>
       </c>
       <c r="I45">
-        <v>0.2194472700644041</v>
+        <v>0.2029121107590844</v>
       </c>
       <c r="J45">
-        <v>0.3629575418756645</v>
+        <v>0.3576114270831806</v>
       </c>
       <c r="K45" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="L45">
         <v>251</v>
       </c>
       <c r="M45" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3280,37 +3046,37 @@
         <v>56</v>
       </c>
       <c r="C46">
-        <v>1773.536212128116</v>
+        <v>2241.638064703778</v>
       </c>
       <c r="D46">
-        <v>0.2188020407566239</v>
+        <v>0.309319181650056</v>
       </c>
       <c r="E46">
-        <v>0.21194939059566</v>
+        <v>0.3432336287443313</v>
       </c>
       <c r="F46">
-        <v>0.7265255205515655</v>
+        <v>0.5847908818881601</v>
       </c>
       <c r="G46">
-        <v>0.2663822965416545</v>
+        <v>0.4124834817918192</v>
       </c>
       <c r="H46">
-        <v>-877.2050228783819</v>
+        <v>-1114.623911309612</v>
       </c>
       <c r="I46">
-        <v>0.220398926694881</v>
+        <v>0.2028125928958251</v>
       </c>
       <c r="J46">
-        <v>0.3489198312871172</v>
+        <v>0.3550823036120198</v>
       </c>
       <c r="K46" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="L46">
         <v>251</v>
       </c>
       <c r="M46" t="s">
-        <v>281</v>
+        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3321,37 +3087,37 @@
         <v>57</v>
       </c>
       <c r="C47">
-        <v>1762.278101425991</v>
+        <v>2179.708124243095</v>
       </c>
       <c r="D47">
-        <v>0.2185429526070245</v>
+        <v>0.2607357478176451</v>
       </c>
       <c r="E47">
-        <v>0.207383284576612</v>
+        <v>0.327442449322391</v>
       </c>
       <c r="F47">
-        <v>0.7318378756767765</v>
+        <v>0.6010654132625989</v>
       </c>
       <c r="G47">
-        <v>0.2609712216814571</v>
+        <v>0.3959765512222344</v>
       </c>
       <c r="H47">
-        <v>-871.5751159778778</v>
+        <v>-1083.521704589557</v>
       </c>
       <c r="I47">
-        <v>0.2191649452920998</v>
+        <v>0.2072379266900699</v>
       </c>
       <c r="J47">
-        <v>0.346106337151365</v>
+        <v>0.3870978326161932</v>
       </c>
       <c r="K47" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="L47">
         <v>251</v>
       </c>
       <c r="M47" t="s">
-        <v>282</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3362,37 +3128,37 @@
         <v>58</v>
       </c>
       <c r="C48">
-        <v>1798.073868225978</v>
+        <v>2165.322672662656</v>
       </c>
       <c r="D48">
-        <v>0.2196014402901354</v>
+        <v>0.266081552300111</v>
       </c>
       <c r="E48">
-        <v>0.2215068608325411</v>
+        <v>0.3235116188193037</v>
       </c>
       <c r="F48">
-        <v>0.7154941329932376</v>
+        <v>0.6051644728850701</v>
       </c>
       <c r="G48">
-        <v>0.2776433354616031</v>
+        <v>0.391833294868924</v>
       </c>
       <c r="H48">
-        <v>-889.5054051722176</v>
+        <v>-1076.321684364534</v>
       </c>
       <c r="I48">
-        <v>0.2213168292871585</v>
+        <v>0.2069250221980741</v>
       </c>
       <c r="J48">
-        <v>0.3501918823899017</v>
+        <v>0.3792933832160515</v>
       </c>
       <c r="K48" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="L48">
         <v>251</v>
       </c>
       <c r="M48" t="s">
-        <v>283</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3403,37 +3169,37 @@
         <v>59</v>
       </c>
       <c r="C49">
-        <v>1739.599518093533</v>
+        <v>2153.962127997588</v>
       </c>
       <c r="D49">
-        <v>0.1994838536436893</v>
+        <v>0.2645352036320885</v>
       </c>
       <c r="E49">
-        <v>0.1846480485751403</v>
+        <v>0.3203383777404086</v>
       </c>
       <c r="F49">
-        <v>0.7594083026334765</v>
+        <v>0.6084866898810221</v>
       </c>
       <c r="G49">
-        <v>0.2348107561588315</v>
+        <v>0.3884786295587842</v>
       </c>
       <c r="H49">
-        <v>-862.2360489989176</v>
+        <v>-1070.641497834985</v>
       </c>
       <c r="I49">
-        <v>0.2212809515174247</v>
+        <v>0.2065027918181666</v>
       </c>
       <c r="J49">
-        <v>0.3469417232011426</v>
+        <v>0.3786388974411302</v>
       </c>
       <c r="K49" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="L49">
         <v>251</v>
       </c>
       <c r="M49" t="s">
-        <v>284</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3444,37 +3210,37 @@
         <v>60</v>
       </c>
       <c r="C50">
-        <v>1739.794175100425</v>
+        <v>2178.343066071851</v>
       </c>
       <c r="D50">
-        <v>0.2006219970969229</v>
+        <v>0.2651998409855744</v>
       </c>
       <c r="E50">
-        <v>0.1847659595744385</v>
+        <v>0.3272665936584671</v>
       </c>
       <c r="F50">
-        <v>0.7592660967204182</v>
+        <v>0.6012311673889945</v>
       </c>
       <c r="G50">
-        <v>0.2349500859919857</v>
+        <v>0.3957879142636009</v>
       </c>
       <c r="H50">
-        <v>-862.3281802095312</v>
+        <v>-1082.802970300215</v>
       </c>
       <c r="I50">
-        <v>0.2193031922334628</v>
+        <v>0.2065502503821629</v>
       </c>
       <c r="J50">
-        <v>0.3445317491031211</v>
+        <v>0.3804401941461338</v>
       </c>
       <c r="K50" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="L50">
         <v>251</v>
       </c>
       <c r="M50" t="s">
-        <v>285</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -3485,37 +3251,37 @@
         <v>61</v>
       </c>
       <c r="C51">
-        <v>1740.068789215851</v>
+        <v>2156.836184871517</v>
       </c>
       <c r="D51">
-        <v>0.2017674531102933</v>
+        <v>0.268014656741799</v>
       </c>
       <c r="E51">
-        <v>0.1847166517019651</v>
+        <v>0.3213644120035655</v>
       </c>
       <c r="F51">
-        <v>0.7593341622340384</v>
+        <v>0.6073923565042262</v>
       </c>
       <c r="G51">
-        <v>0.2349044754407679</v>
+        <v>0.3895598351404396</v>
       </c>
       <c r="H51">
-        <v>-862.4903463686211</v>
+        <v>-1072.03875461799</v>
       </c>
       <c r="I51">
-        <v>0.2196898170602735</v>
+        <v>0.20634952965918</v>
       </c>
       <c r="J51">
-        <v>0.3430308729548952</v>
+        <v>0.3751248969154256</v>
       </c>
       <c r="K51" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="L51">
         <v>251</v>
       </c>
       <c r="M51" t="s">
-        <v>286</v>
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -3526,37 +3292,37 @@
         <v>62</v>
       </c>
       <c r="C52">
-        <v>1802.144149680176</v>
+        <v>2157.383875556725</v>
       </c>
       <c r="D52">
-        <v>0.2134300658192729</v>
+        <v>0.267039367870281</v>
       </c>
       <c r="E52">
-        <v>0.2238844356878409</v>
+        <v>0.3215282739880566</v>
       </c>
       <c r="F52">
-        <v>0.712709461931222</v>
+        <v>0.6072198098346663</v>
       </c>
       <c r="G52">
-        <v>0.2803719334474013</v>
+        <v>0.3897329352777389</v>
       </c>
       <c r="H52">
-        <v>-891.4186563507391</v>
+        <v>-1072.310683874039</v>
       </c>
       <c r="I52">
-        <v>0.2233276583370571</v>
+        <v>0.2060457671637448</v>
       </c>
       <c r="J52">
-        <v>0.3556941188474328</v>
+        <v>0.3758045045933808</v>
       </c>
       <c r="K52" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="L52">
         <v>251</v>
       </c>
       <c r="M52" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -3567,37 +3333,37 @@
         <v>63</v>
       </c>
       <c r="C53">
-        <v>1738.732797712865</v>
+        <v>2174.281079905544</v>
       </c>
       <c r="D53">
-        <v>0.1991518281058472</v>
+        <v>0.2704804694482114</v>
       </c>
       <c r="E53">
-        <v>0.1841638057474206</v>
+        <v>0.3259309677372536</v>
       </c>
       <c r="F53">
-        <v>0.7599908439971339</v>
+        <v>0.6026429726696713</v>
       </c>
       <c r="G53">
-        <v>0.2342360101234366</v>
+        <v>0.3943857479956892</v>
       </c>
       <c r="H53">
-        <v>-861.8197265609633</v>
+        <v>-1080.811690887223</v>
       </c>
       <c r="I53">
-        <v>0.2207665908443802</v>
+        <v>0.2078416117635675</v>
       </c>
       <c r="J53">
-        <v>0.3462287751840937</v>
+        <v>0.3753833014093858</v>
       </c>
       <c r="K53" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="L53">
         <v>251</v>
       </c>
       <c r="M53" t="s">
-        <v>288</v>
+        <v>236</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -3608,37 +3374,37 @@
         <v>64</v>
       </c>
       <c r="C54">
-        <v>1796.785831025883</v>
+        <v>2233.337852521882</v>
       </c>
       <c r="D54">
-        <v>0.2337944588920187</v>
+        <v>0.2799282011095037</v>
       </c>
       <c r="E54">
-        <v>0.2215317124533804</v>
+        <v>0.3422031859773889</v>
       </c>
       <c r="F54">
-        <v>0.7154301246613461</v>
+        <v>0.5857476652472514</v>
       </c>
       <c r="G54">
-        <v>0.2776361464987215</v>
+        <v>0.4114000338049144</v>
       </c>
       <c r="H54">
-        <v>-888.7791412925346</v>
+        <v>-1110.262497924877</v>
       </c>
       <c r="I54">
-        <v>0.2176987203186976</v>
+        <v>0.2086053238404822</v>
       </c>
       <c r="J54">
-        <v>0.3421763226741044</v>
+        <v>0.3769159296546192</v>
       </c>
       <c r="K54" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="L54">
         <v>251</v>
       </c>
       <c r="M54" t="s">
-        <v>289</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -3649,37 +3415,37 @@
         <v>65</v>
       </c>
       <c r="C55">
-        <v>1837.281159813854</v>
+        <v>2150.304153777079</v>
       </c>
       <c r="D55">
-        <v>0.2468205799000541</v>
+        <v>0.265845641023798</v>
       </c>
       <c r="E55">
-        <v>0.2371150092620876</v>
+        <v>0.3192532811569732</v>
       </c>
       <c r="F55">
-        <v>0.6976335318508274</v>
+        <v>0.6096297150994598</v>
       </c>
       <c r="G55">
-        <v>0.2957509725039785</v>
+        <v>0.3873305357540587</v>
       </c>
       <c r="H55">
-        <v>-909.0205505945517</v>
+        <v>-1068.822689593333</v>
       </c>
       <c r="I55">
-        <v>0.2184171340259692</v>
+        <v>0.2069556274026501</v>
       </c>
       <c r="J55">
-        <v>0.3399080852862202</v>
+        <v>0.3763072715137855</v>
       </c>
       <c r="K55" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="L55">
         <v>251</v>
       </c>
       <c r="M55" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -3690,37 +3456,37 @@
         <v>66</v>
       </c>
       <c r="C56">
-        <v>1758.069458097652</v>
+        <v>2148.921814681556</v>
       </c>
       <c r="D56">
-        <v>0.2206430288421912</v>
+        <v>0.2643618045449861</v>
       </c>
       <c r="E56">
-        <v>0.2059921077464568</v>
+        <v>0.3191698942446124</v>
       </c>
       <c r="F56">
-        <v>0.733440221992424</v>
+        <v>0.6096907410613031</v>
       </c>
       <c r="G56">
-        <v>0.2592925598600911</v>
+        <v>0.3872356193794336</v>
       </c>
       <c r="H56">
-        <v>-869.4201673861803</v>
+        <v>-1068.076403909322</v>
       </c>
       <c r="I56">
-        <v>0.2200549057530073</v>
+        <v>0.2068861823480732</v>
       </c>
       <c r="J56">
-        <v>0.343623209801567</v>
+        <v>0.3776045320441507</v>
       </c>
       <c r="K56" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="L56">
         <v>251</v>
       </c>
       <c r="M56" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -3731,37 +3497,37 @@
         <v>67</v>
       </c>
       <c r="C57">
-        <v>1763.051149217228</v>
+        <v>2225.65360263139</v>
       </c>
       <c r="D57">
-        <v>0.2205137793279959</v>
+        <v>0.2938322268673288</v>
       </c>
       <c r="E57">
-        <v>0.2084046443740075</v>
+        <v>0.3496579605548265</v>
       </c>
       <c r="F57">
-        <v>0.7306027024409217</v>
+        <v>0.5772331955129932</v>
       </c>
       <c r="G57">
-        <v>0.2621307659760295</v>
+        <v>0.4190197109413348</v>
       </c>
       <c r="H57">
-        <v>-871.8541642793307</v>
+        <v>-1104.655957296416</v>
       </c>
       <c r="I57">
-        <v>0.2218019829810261</v>
+        <v>0.2037701572076859</v>
       </c>
       <c r="J57">
-        <v>0.3449095029441405</v>
+        <v>0.372149144601623</v>
       </c>
       <c r="K57" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="L57">
         <v>251</v>
       </c>
       <c r="M57" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
     </row>
     <row r="58" spans="1:13">
@@ -3772,37 +3538,37 @@
         <v>68</v>
       </c>
       <c r="C58">
-        <v>1784.707922917236</v>
+        <v>2153.285353636091</v>
       </c>
       <c r="D58">
-        <v>0.218491227041324</v>
+        <v>0.2655287400324605</v>
       </c>
       <c r="E58">
-        <v>0.2041033602825554</v>
+        <v>0.3204208963075101</v>
       </c>
       <c r="F58">
-        <v>0.7364392827768506</v>
+        <v>0.6083765472695695</v>
       </c>
       <c r="G58">
-        <v>0.2580072616896946</v>
+        <v>0.3885602932956994</v>
       </c>
       <c r="H58">
-        <v>-884.6826096596745</v>
+        <v>-1070.253977036583</v>
       </c>
       <c r="I58">
-        <v>0.220039141027556</v>
+        <v>0.2071643159668617</v>
       </c>
       <c r="J58">
-        <v>0.3425159405646566</v>
+        <v>0.3776630072540775</v>
       </c>
       <c r="K58" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="L58">
         <v>251</v>
       </c>
       <c r="M58" t="s">
-        <v>293</v>
+        <v>241</v>
       </c>
     </row>
     <row r="59" spans="1:13">
@@ -3813,37 +3579,37 @@
         <v>69</v>
       </c>
       <c r="C59">
-        <v>1757.971169188518</v>
+        <v>2161.205934644324</v>
       </c>
       <c r="D59">
-        <v>0.2199949808140165</v>
+        <v>0.2674531647948714</v>
       </c>
       <c r="E59">
-        <v>0.2063125008195936</v>
+        <v>0.3230542119557457</v>
       </c>
       <c r="F59">
-        <v>0.7330434450010389</v>
+        <v>0.6055827360494066</v>
       </c>
       <c r="G59">
-        <v>0.259646181162755</v>
+        <v>0.3913366268539618</v>
       </c>
       <c r="H59">
-        <v>-869.3162123523973</v>
+        <v>-1074.138756565442</v>
       </c>
       <c r="I59">
-        <v>0.2191327190908376</v>
+        <v>0.2067420484391262</v>
       </c>
       <c r="J59">
-        <v>0.3443071170966134</v>
+        <v>0.3776560623811892</v>
       </c>
       <c r="K59" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="L59">
         <v>251</v>
       </c>
       <c r="M59" t="s">
-        <v>294</v>
+        <v>242</v>
       </c>
     </row>
     <row r="60" spans="1:13">
@@ -3854,37 +3620,37 @@
         <v>70</v>
       </c>
       <c r="C60">
-        <v>1748.298312602785</v>
+        <v>2181.019539876409</v>
       </c>
       <c r="D60">
-        <v>0.2043187732288604</v>
+        <v>0.2779699364976725</v>
       </c>
       <c r="E60">
-        <v>0.1882465250286828</v>
+        <v>0.3284841356194609</v>
       </c>
       <c r="F60">
-        <v>0.7551411226248708</v>
+        <v>0.5999203922889157</v>
       </c>
       <c r="G60">
-        <v>0.2391517840250506</v>
+        <v>0.3970597937095005</v>
       </c>
       <c r="H60">
-        <v>-866.5996978957248</v>
+        <v>-1084.052981978477</v>
       </c>
       <c r="I60">
-        <v>0.2184149012186206</v>
+        <v>0.2067722076834561</v>
       </c>
       <c r="J60">
-        <v>0.3441098751469179</v>
+        <v>0.3723258775999664</v>
       </c>
       <c r="K60" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="L60">
         <v>251</v>
       </c>
       <c r="M60" t="s">
-        <v>295</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:13">
@@ -3895,37 +3661,37 @@
         <v>71</v>
       </c>
       <c r="C61">
-        <v>1771.635657911201</v>
+        <v>2173.740773230967</v>
       </c>
       <c r="D61">
-        <v>0.2268057564228074</v>
+        <v>0.2654437721815725</v>
       </c>
       <c r="E61">
-        <v>0.2113691248037307</v>
+        <v>0.3264600542850838</v>
       </c>
       <c r="F61">
-        <v>0.7271873364676139</v>
+        <v>0.6020315639274644</v>
       </c>
       <c r="G61">
-        <v>0.2656823041854405</v>
+        <v>0.3949303953158114</v>
       </c>
       <c r="H61">
-        <v>-876.2260857455458</v>
+        <v>-1080.418256041548</v>
       </c>
       <c r="I61">
-        <v>0.2168094651881725</v>
+        <v>0.2073836139818905</v>
       </c>
       <c r="J61">
-        <v>0.3417709393211368</v>
+        <v>0.3813434406115787</v>
       </c>
       <c r="K61" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="L61">
         <v>251</v>
       </c>
       <c r="M61" t="s">
-        <v>296</v>
+        <v>244</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -3936,37 +3702,37 @@
         <v>72</v>
       </c>
       <c r="C62">
-        <v>1748.073644943878</v>
+        <v>2216.833939684202</v>
       </c>
       <c r="D62">
-        <v>0.2088450360615413</v>
+        <v>0.2862826834578424</v>
       </c>
       <c r="E62">
-        <v>0.1882768281808714</v>
+        <v>0.3374919330388297</v>
       </c>
       <c r="F62">
-        <v>0.7550979925336456</v>
+        <v>0.5906370935745672</v>
       </c>
       <c r="G62">
-        <v>0.2391780060991811</v>
+        <v>0.4065017464682059</v>
       </c>
       <c r="H62">
-        <v>-866.4685791699803</v>
+        <v>-1102.078290121966</v>
       </c>
       <c r="I62">
-        <v>0.2179560577759517</v>
+        <v>0.2012763774935107</v>
       </c>
       <c r="J62">
-        <v>0.3403909899271887</v>
+        <v>0.3693455348634873</v>
       </c>
       <c r="K62" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="L62">
         <v>251</v>
       </c>
       <c r="M62" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:13">
@@ -3977,37 +3743,37 @@
         <v>73</v>
       </c>
       <c r="C63">
-        <v>2365.027244803774</v>
+        <v>2210.191743766852</v>
       </c>
       <c r="D63">
-        <v>0.308940241718451</v>
+        <v>0.2851159692749051</v>
       </c>
       <c r="E63">
-        <v>0.3079592250692825</v>
+        <v>0.3357384731957065</v>
       </c>
       <c r="F63">
-        <v>0.6170813757355045</v>
+        <v>0.592448352593407</v>
       </c>
       <c r="G63">
-        <v>0.3753642116056818</v>
+        <v>0.4046716259892846</v>
       </c>
       <c r="H63">
-        <v>-1167.224269099576</v>
+        <v>-1098.754584794481</v>
       </c>
       <c r="I63">
-        <v>0.2101788622800304</v>
+        <v>0.2022076172425496</v>
       </c>
       <c r="J63">
-        <v>0.3111427242607531</v>
+        <v>0.369272296538572</v>
       </c>
       <c r="K63" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="L63">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="M63" t="s">
-        <v>298</v>
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:13">
@@ -4018,37 +3784,37 @@
         <v>74</v>
       </c>
       <c r="C64">
-        <v>1837.524058686371</v>
+        <v>2231.371256815528</v>
       </c>
       <c r="D64">
-        <v>0.2012117511751593</v>
+        <v>0.2917226673431486</v>
       </c>
       <c r="E64">
-        <v>0.2229355429037253</v>
+        <v>0.3414621045272196</v>
       </c>
       <c r="F64">
-        <v>0.7147741194017666</v>
+        <v>0.5865308193628593</v>
       </c>
       <c r="G64">
-        <v>0.2802288390583377</v>
+        <v>0.4106329412033184</v>
       </c>
       <c r="H64">
-        <v>-911.3904278770099</v>
+        <v>-1109.321373164079</v>
       </c>
       <c r="I64">
-        <v>0.2190903394167721</v>
+        <v>0.201118760825539</v>
       </c>
       <c r="J64">
-        <v>0.3671718651022512</v>
+        <v>0.3671764964303596</v>
       </c>
       <c r="K64" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="L64">
         <v>251</v>
       </c>
       <c r="M64" t="s">
-        <v>299</v>
+        <v>247</v>
       </c>
     </row>
     <row r="65" spans="1:13">
@@ -4059,37 +3825,37 @@
         <v>75</v>
       </c>
       <c r="C65">
-        <v>2305.858247046799</v>
+        <v>2363.621012645538</v>
       </c>
       <c r="D65">
-        <v>0.3376801528613548</v>
+        <v>0.396697883528822</v>
       </c>
       <c r="E65">
-        <v>0.3831452611486731</v>
+        <v>0.3972176506329937</v>
       </c>
       <c r="F65">
-        <v>0.5421581833348572</v>
+        <v>0.5281793022304805</v>
       </c>
       <c r="G65">
-        <v>0.4532057254976705</v>
+        <v>0.467351000913523</v>
       </c>
       <c r="H65">
-        <v>-1142.162290394099</v>
+        <v>-1170.901795301646</v>
       </c>
       <c r="I65">
-        <v>0.2010286460226536</v>
+        <v>0.1946234844308092</v>
       </c>
       <c r="J65">
-        <v>0.3580905850206665</v>
+        <v>0.3037918004384884</v>
       </c>
       <c r="K65" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="L65">
         <v>251</v>
       </c>
       <c r="M65" t="s">
-        <v>300</v>
+        <v>248</v>
       </c>
     </row>
     <row r="66" spans="1:13">
@@ -4100,37 +3866,37 @@
         <v>76</v>
       </c>
       <c r="C66">
-        <v>1840.385245795213</v>
+        <v>2301.816186833115</v>
       </c>
       <c r="D66">
-        <v>0.192670334017013</v>
+        <v>0.3419290848113637</v>
       </c>
       <c r="E66">
-        <v>0.2121518793398224</v>
+        <v>0.3909148119731961</v>
       </c>
       <c r="F66">
-        <v>0.7279577745726277</v>
+        <v>0.5335776448702411</v>
       </c>
       <c r="G66">
-        <v>0.2684514604379511</v>
+        <v>0.4610463964413178</v>
       </c>
       <c r="H66">
-        <v>-914.6808174461036</v>
+        <v>-1138.437981026747</v>
       </c>
       <c r="I66">
-        <v>0.2238987339626251</v>
+        <v>0.200787911720468</v>
       </c>
       <c r="J66">
-        <v>0.3664175471476174</v>
+        <v>0.3593026927027062</v>
       </c>
       <c r="K66" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="L66">
         <v>251</v>
       </c>
       <c r="M66" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:13">
@@ -4141,37 +3907,37 @@
         <v>77</v>
       </c>
       <c r="C67">
-        <v>1797.501870554076</v>
+        <v>2281.345469079359</v>
       </c>
       <c r="D67">
-        <v>0.1900106027609411</v>
+        <v>0.3287717300864634</v>
       </c>
       <c r="E67">
-        <v>0.1951845560826142</v>
+        <v>0.3774735498121354</v>
       </c>
       <c r="F67">
-        <v>0.7477337064331891</v>
+        <v>0.5477897799376857</v>
       </c>
       <c r="G67">
-        <v>0.2484864756006172</v>
+        <v>0.4474566339726834</v>
       </c>
       <c r="H67">
-        <v>-893.2356005503087</v>
+        <v>-1129.868015506329</v>
       </c>
       <c r="I67">
-        <v>0.2229148523836358</v>
+        <v>0.2013210414646016</v>
       </c>
       <c r="J67">
-        <v>0.3578272367011158</v>
+        <v>0.3620449888962034</v>
       </c>
       <c r="K67" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="L67">
         <v>251</v>
       </c>
       <c r="M67" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
     </row>
     <row r="68" spans="1:13">
@@ -4182,37 +3948,37 @@
         <v>78</v>
       </c>
       <c r="C68">
-        <v>1827.177635940366</v>
+        <v>2298.062157550164</v>
       </c>
       <c r="D68">
-        <v>0.1835253280770305</v>
+        <v>0.3423984107783825</v>
       </c>
       <c r="E68">
-        <v>0.2074774759145481</v>
+        <v>0.3812894177493709</v>
       </c>
       <c r="F68">
-        <v>0.7333456704109234</v>
+        <v>0.5440045771402714</v>
       </c>
       <c r="G68">
-        <v>0.2629512591408915</v>
+        <v>0.451327867510547</v>
       </c>
       <c r="H68">
-        <v>-908.0038014090929</v>
+        <v>-1138.264775211512</v>
       </c>
       <c r="I68">
-        <v>0.2222244092587775</v>
+        <v>0.2003417071129657</v>
       </c>
       <c r="J68">
-        <v>0.3732679178271402</v>
+        <v>0.3526358473055332</v>
       </c>
       <c r="K68" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="L68">
         <v>251</v>
       </c>
       <c r="M68" t="s">
-        <v>303</v>
+        <v>251</v>
       </c>
     </row>
     <row r="69" spans="1:13">
@@ -4223,37 +3989,37 @@
         <v>79</v>
       </c>
       <c r="C69">
-        <v>1785.845728151269</v>
+        <v>2378.893594800228</v>
       </c>
       <c r="D69">
-        <v>0.1798779688481899</v>
+        <v>0.3557997313876939</v>
       </c>
       <c r="E69">
-        <v>0.1908970132359891</v>
+        <v>0.4154308153362832</v>
       </c>
       <c r="F69">
-        <v>0.7527544263903435</v>
+        <v>0.5088719332141025</v>
       </c>
       <c r="G69">
-        <v>0.2433539724435634</v>
+        <v>0.4855485638131525</v>
       </c>
       <c r="H69">
-        <v>-887.3355036303394</v>
+        <v>-1175.557451637583</v>
       </c>
       <c r="I69">
-        <v>0.2250234974024981</v>
+        <v>0.2003566494447907</v>
       </c>
       <c r="J69">
-        <v>0.3647301800667848</v>
+        <v>0.3643003370415957</v>
       </c>
       <c r="K69" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="L69">
         <v>251</v>
       </c>
       <c r="M69" t="s">
-        <v>304</v>
+        <v>252</v>
       </c>
     </row>
     <row r="70" spans="1:13">
@@ -4264,37 +4030,37 @@
         <v>80</v>
       </c>
       <c r="C70">
-        <v>1780.921395973601</v>
+        <v>2305.858247046785</v>
       </c>
       <c r="D70">
-        <v>0.1800366268482696</v>
+        <v>0.337680152861354</v>
       </c>
       <c r="E70">
-        <v>0.1888657144415665</v>
+        <v>0.3831452611486756</v>
       </c>
       <c r="F70">
-        <v>0.7551534484464807</v>
+        <v>0.5421581833348541</v>
       </c>
       <c r="G70">
-        <v>0.2409318804115232</v>
+        <v>0.4532057254976737</v>
       </c>
       <c r="H70">
-        <v>-884.8735653744646</v>
+        <v>-1142.162290394093</v>
       </c>
       <c r="I70">
-        <v>0.224855019548832</v>
+        <v>0.2010286460226541</v>
       </c>
       <c r="J70">
-        <v>0.3630943997081882</v>
+        <v>0.3580905850206534</v>
       </c>
       <c r="K70" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="L70">
         <v>251</v>
       </c>
       <c r="M70" t="s">
-        <v>305</v>
+        <v>253</v>
       </c>
     </row>
     <row r="71" spans="1:13">
@@ -4305,37 +4071,37 @@
         <v>81</v>
       </c>
       <c r="C71">
-        <v>1828.468600243994</v>
+        <v>2302.486192932424</v>
       </c>
       <c r="D71">
-        <v>0.1947885970374257</v>
+        <v>0.3436983892060556</v>
       </c>
       <c r="E71">
-        <v>0.2080961658840182</v>
+        <v>0.3824164189382131</v>
       </c>
       <c r="F71">
-        <v>0.7326202964655458</v>
+        <v>0.5428757504597612</v>
       </c>
       <c r="G71">
-        <v>0.2636687720409578</v>
+        <v>0.452468501397304</v>
       </c>
       <c r="H71">
-        <v>-908.6318198840511</v>
+        <v>-1140.462394946824</v>
       </c>
       <c r="I71">
-        <v>0.2215320061879307</v>
+        <v>0.2002809731553452</v>
       </c>
       <c r="J71">
-        <v>0.3607430706756235</v>
+        <v>0.3522157548276506</v>
       </c>
       <c r="K71" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="L71">
         <v>251</v>
       </c>
       <c r="M71" t="s">
-        <v>306</v>
+        <v>254</v>
       </c>
     </row>
     <row r="72" spans="1:13">
@@ -4346,37 +4112,37 @@
         <v>82</v>
       </c>
       <c r="C72">
-        <v>1783.000604365217</v>
+        <v>2337.261793499692</v>
       </c>
       <c r="D72">
-        <v>0.182465383048921</v>
+        <v>0.3266704002430576</v>
       </c>
       <c r="E72">
-        <v>0.1898463101299581</v>
+        <v>0.3892767243966446</v>
       </c>
       <c r="F72">
-        <v>0.753987801085544</v>
+        <v>0.5362016168125499</v>
       </c>
       <c r="G72">
-        <v>0.2420923154208248</v>
+        <v>0.4593868563270695</v>
       </c>
       <c r="H72">
-        <v>-885.8946523038408</v>
+        <v>-1158.102761660444</v>
       </c>
       <c r="I72">
-        <v>0.224398700432681</v>
+        <v>0.2017237062966085</v>
       </c>
       <c r="J72">
-        <v>0.3607134474759767</v>
+        <v>0.3730367034219371</v>
       </c>
       <c r="K72" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="L72">
         <v>251</v>
       </c>
       <c r="M72" t="s">
-        <v>307</v>
+        <v>255</v>
       </c>
     </row>
     <row r="73" spans="1:13">
@@ -4387,37 +4153,37 @@
         <v>83</v>
       </c>
       <c r="C73">
-        <v>1785.03831977738</v>
+        <v>2320.621504049523</v>
       </c>
       <c r="D73">
-        <v>0.1809882859356856</v>
+        <v>0.3353709605640788</v>
       </c>
       <c r="E73">
-        <v>0.1906894581274196</v>
+        <v>0.3854318887354994</v>
       </c>
       <c r="F73">
-        <v>0.7529921749438443</v>
+        <v>0.5400069934470194</v>
       </c>
       <c r="G73">
-        <v>0.2430970879733186</v>
+        <v>0.4555152761142661</v>
       </c>
       <c r="H73">
-        <v>-886.9128927132858</v>
+        <v>-1149.776818721318</v>
       </c>
       <c r="I73">
-        <v>0.2238685976354824</v>
+        <v>0.2012209638260932</v>
       </c>
       <c r="J73">
-        <v>0.3624473770748926</v>
+        <v>0.3618090003629393</v>
       </c>
       <c r="K73" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="L73">
         <v>251</v>
       </c>
       <c r="M73" t="s">
-        <v>308</v>
+        <v>256</v>
       </c>
     </row>
     <row r="74" spans="1:13">
@@ -4428,37 +4194,37 @@
         <v>84</v>
       </c>
       <c r="C74">
-        <v>1785.203997131137</v>
+        <v>2293.269941652464</v>
       </c>
       <c r="D74">
-        <v>0.1833704666428781</v>
+        <v>0.333094278406515</v>
       </c>
       <c r="E74">
-        <v>0.1905877378220965</v>
+        <v>0.3789353575868334</v>
       </c>
       <c r="F74">
-        <v>0.7531219812032027</v>
+        <v>0.5464707179543192</v>
       </c>
       <c r="G74">
-        <v>0.2429889904307926</v>
+        <v>0.4489443282692248</v>
       </c>
       <c r="H74">
-        <v>-887.0215295634318</v>
+        <v>-1136.102933220246</v>
       </c>
       <c r="I74">
-        <v>0.2234051739825939</v>
+        <v>0.2017647182916776</v>
       </c>
       <c r="J74">
-        <v>0.3610117727875367</v>
+        <v>0.3595670310610508</v>
       </c>
       <c r="K74" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="L74">
         <v>251</v>
       </c>
       <c r="M74" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
     </row>
     <row r="75" spans="1:13">
@@ -4469,37 +4235,37 @@
         <v>85</v>
       </c>
       <c r="C75">
-        <v>1832.856076138676</v>
+        <v>2329.053078534037</v>
       </c>
       <c r="D75">
-        <v>0.2145917806781062</v>
+        <v>0.3326656436861545</v>
       </c>
       <c r="E75">
-        <v>0.24325541742542</v>
+        <v>0.387411899386413</v>
       </c>
       <c r="F75">
-        <v>0.6901326162561844</v>
+        <v>0.538043226776122</v>
       </c>
       <c r="G75">
-        <v>0.3023571390458389</v>
+        <v>0.4575106772896115</v>
       </c>
       <c r="H75">
-        <v>-905.5732986975534</v>
+        <v>-1153.990590080406</v>
       </c>
       <c r="I75">
-        <v>0.2255474269524792</v>
+        <v>0.2005582075525818</v>
       </c>
       <c r="J75">
-        <v>0.3666274045793051</v>
+        <v>0.3627644444598535</v>
       </c>
       <c r="K75" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="L75">
         <v>251</v>
       </c>
       <c r="M75" t="s">
-        <v>310</v>
+        <v>258</v>
       </c>
     </row>
     <row r="76" spans="1:13">
@@ -4510,37 +4276,37 @@
         <v>86</v>
       </c>
       <c r="C76">
-        <v>1782.855826413905</v>
+        <v>2291.790396833175</v>
       </c>
       <c r="D76">
-        <v>0.1822611702173556</v>
+        <v>0.3342656586586156</v>
       </c>
       <c r="E76">
-        <v>0.1896269537562064</v>
+        <v>0.3786967646400309</v>
       </c>
       <c r="F76">
-        <v>0.7542560382833486</v>
+        <v>0.5466971680927062</v>
       </c>
       <c r="G76">
-        <v>0.2418430794481927</v>
+        <v>0.4487020284559448</v>
       </c>
       <c r="H76">
-        <v>-885.8464679100587</v>
+        <v>-1135.340587204152</v>
       </c>
       <c r="I76">
-        <v>0.224942206871009</v>
+        <v>0.2009643416581163</v>
       </c>
       <c r="J76">
-        <v>0.361602980786324</v>
+        <v>0.3581859452121623</v>
       </c>
       <c r="K76" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="L76">
         <v>251</v>
       </c>
       <c r="M76" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
     </row>
     <row r="77" spans="1:13">
@@ -4551,37 +4317,37 @@
         <v>87</v>
       </c>
       <c r="C77">
-        <v>1798.849114773172</v>
+        <v>2294.713654485611</v>
       </c>
       <c r="D77">
-        <v>0.1866231641605454</v>
+        <v>0.3363454312447831</v>
       </c>
       <c r="E77">
-        <v>0.1962819324209718</v>
+        <v>0.3794202500681311</v>
       </c>
       <c r="F77">
-        <v>0.7464125398455341</v>
+        <v>0.545973339055659</v>
       </c>
       <c r="G77">
-        <v>0.2497464544483242</v>
+        <v>0.4494357565932476</v>
       </c>
       <c r="H77">
-        <v>-893.8249738565646</v>
+        <v>-1136.7978800189</v>
       </c>
       <c r="I77">
-        <v>0.2256438137730553</v>
+        <v>0.1990701337842914</v>
       </c>
       <c r="J77">
-        <v>0.3626297749382361</v>
+        <v>0.3558405476490545</v>
       </c>
       <c r="K77" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="L77">
         <v>251</v>
       </c>
       <c r="M77" t="s">
-        <v>312</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" spans="1:13">
@@ -4592,37 +4358,37 @@
         <v>88</v>
       </c>
       <c r="C78">
-        <v>1835.444252085149</v>
+        <v>2301.776643451948</v>
       </c>
       <c r="D78">
-        <v>0.2409569254121015</v>
+        <v>0.3383700612838657</v>
       </c>
       <c r="E78">
-        <v>0.2442870880620563</v>
+        <v>0.3809482000265338</v>
       </c>
       <c r="F78">
-        <v>0.6889646622086537</v>
+        <v>0.5444666313965439</v>
       </c>
       <c r="G78">
-        <v>0.3035403038211072</v>
+        <v>0.4509842060128293</v>
       </c>
       <c r="H78">
-        <v>-906.8567116996401</v>
+        <v>-1140.360309974974</v>
       </c>
       <c r="I78">
-        <v>0.2211952837218071</v>
+        <v>0.2016191329979763</v>
       </c>
       <c r="J78">
-        <v>0.3487655464150114</v>
+        <v>0.3542590965513128</v>
       </c>
       <c r="K78" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="L78">
         <v>251</v>
       </c>
       <c r="M78" t="s">
-        <v>313</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:13">
@@ -4633,37 +4399,37 @@
         <v>89</v>
       </c>
       <c r="C79">
-        <v>1780.626753514711</v>
+        <v>2435.967681697331</v>
       </c>
       <c r="D79">
-        <v>0.182514440554724</v>
+        <v>0.3462886561428902</v>
       </c>
       <c r="E79">
-        <v>0.1888056580229397</v>
+        <v>0.4268592940534053</v>
       </c>
       <c r="F79">
-        <v>0.7552209180375113</v>
+        <v>0.4979428614907443</v>
       </c>
       <c r="G79">
-        <v>0.2408553845942722</v>
+        <v>0.4967864681795185</v>
       </c>
       <c r="H79">
-        <v>-884.716892128353</v>
+        <v>-1204.237123568378</v>
       </c>
       <c r="I79">
-        <v>0.2247563294921711</v>
+        <v>0.2066901253790495</v>
       </c>
       <c r="J79">
-        <v>0.3603858440967849</v>
+        <v>0.3754716511454797</v>
       </c>
       <c r="K79" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="L79">
         <v>251</v>
       </c>
       <c r="M79" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:13">
@@ -4674,37 +4440,37 @@
         <v>90</v>
       </c>
       <c r="C80">
-        <v>1780.577346316821</v>
+        <v>2282.555499233939</v>
       </c>
       <c r="D80">
-        <v>0.1816832825392767</v>
+        <v>0.3330485330314352</v>
       </c>
       <c r="E80">
-        <v>0.1890489257228998</v>
+        <v>0.3763137681423812</v>
       </c>
       <c r="F80">
-        <v>0.7549183138267314</v>
+        <v>0.5490925685669004</v>
       </c>
       <c r="G80">
-        <v>0.2411251930908198</v>
+        <v>0.4462823600797828</v>
       </c>
       <c r="H80">
-        <v>-884.6522503234216</v>
+        <v>-1130.753281595077</v>
       </c>
       <c r="I80">
-        <v>0.2242101090774714</v>
+        <v>0.2010332674110119</v>
       </c>
       <c r="J80">
-        <v>0.3615026785852936</v>
+        <v>0.3574795220352307</v>
       </c>
       <c r="K80" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="L80">
         <v>251</v>
       </c>
       <c r="M80" t="s">
-        <v>315</v>
+        <v>263</v>
       </c>
     </row>
     <row r="81" spans="1:13">
@@ -4715,37 +4481,37 @@
         <v>91</v>
       </c>
       <c r="C81">
-        <v>1811.874574630565</v>
+        <v>2289.403562523954</v>
       </c>
       <c r="D81">
-        <v>0.2030685799958157</v>
+        <v>0.3336707062757454</v>
       </c>
       <c r="E81">
-        <v>0.2088579601056169</v>
+        <v>0.3783216887594741</v>
       </c>
       <c r="F81">
-        <v>0.7312823699631138</v>
+        <v>0.5470517254998378</v>
       </c>
       <c r="G81">
-        <v>0.2640561679950858</v>
+        <v>0.4483209418525828</v>
       </c>
       <c r="H81">
-        <v>-899.2054221489718</v>
+        <v>-1134.108724368898</v>
       </c>
       <c r="I81">
-        <v>0.2239537179677706</v>
+        <v>0.2005699666524001</v>
       </c>
       <c r="J81">
-        <v>0.3564648464554782</v>
+        <v>0.3584230576736535</v>
       </c>
       <c r="K81" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="L81">
         <v>251</v>
       </c>
       <c r="M81" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
     </row>
     <row r="82" spans="1:13">
@@ -4756,37 +4522,37 @@
         <v>92</v>
       </c>
       <c r="C82">
-        <v>1783.669305478349</v>
+        <v>2371.457124025477</v>
       </c>
       <c r="D82">
-        <v>0.1814654607809628</v>
+        <v>0.35306797155831</v>
       </c>
       <c r="E82">
-        <v>0.1902860192988898</v>
+        <v>0.3974778492351226</v>
       </c>
       <c r="F82">
-        <v>0.7534591762908203</v>
+        <v>0.5280774416372844</v>
       </c>
       <c r="G82">
-        <v>0.242603866789063</v>
+        <v>0.4676045233425974</v>
       </c>
       <c r="H82">
-        <v>-886.2040803121502</v>
+        <v>-1175.119728646566</v>
       </c>
       <c r="I82">
-        <v>0.2241336091878096</v>
+        <v>0.200282625018997</v>
       </c>
       <c r="J82">
-        <v>0.3625109717819341</v>
+        <v>0.3543766235388068</v>
       </c>
       <c r="K82" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="L82">
         <v>251</v>
       </c>
       <c r="M82" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:13">
@@ -4797,37 +4563,37 @@
         <v>93</v>
       </c>
       <c r="C83">
-        <v>1792.480409081679</v>
+        <v>2357.441413993806</v>
       </c>
       <c r="D83">
-        <v>0.1897306246570319</v>
+        <v>0.3536780144795234</v>
       </c>
       <c r="E83">
-        <v>0.1935968902191502</v>
+        <v>0.4098208920600904</v>
       </c>
       <c r="F83">
-        <v>0.7495740349661528</v>
+        <v>0.5144075387527166</v>
       </c>
       <c r="G83">
-        <v>0.2465673869376854</v>
+        <v>0.479981879837399</v>
       </c>
       <c r="H83">
-        <v>-890.655382774226</v>
+        <v>-1165.014038424188</v>
       </c>
       <c r="I83">
-        <v>0.2216388455048509</v>
+        <v>0.2021554795254517</v>
       </c>
       <c r="J83">
-        <v>0.3567439914410164</v>
+        <v>0.3631638801953056</v>
       </c>
       <c r="K83" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="L83">
         <v>251</v>
       </c>
       <c r="M83" t="s">
-        <v>318</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -4838,37 +4604,37 @@
         <v>94</v>
       </c>
       <c r="C84">
-        <v>1797.874442486094</v>
+        <v>2313.916719896453</v>
       </c>
       <c r="D84">
-        <v>0.1915508094369851</v>
+        <v>0.3361719299686632</v>
       </c>
       <c r="E84">
-        <v>0.1958158428670177</v>
+        <v>0.3844788022381309</v>
       </c>
       <c r="F84">
-        <v>0.7469639659105283</v>
+        <v>0.5408905013179681</v>
       </c>
       <c r="G84">
-        <v>0.2491992498508264</v>
+        <v>0.4545534188583354</v>
       </c>
       <c r="H84">
-        <v>-893.3485319309045</v>
+        <v>-1146.302714935713</v>
       </c>
       <c r="I84">
-        <v>0.2210900687784975</v>
+        <v>0.200631967201904</v>
       </c>
       <c r="J84">
-        <v>0.3564527566611317</v>
+        <v>0.3605967809202382</v>
       </c>
       <c r="K84" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="L84">
         <v>251</v>
       </c>
       <c r="M84" t="s">
-        <v>319</v>
+        <v>267</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -4879,37 +4645,37 @@
         <v>95</v>
       </c>
       <c r="C85">
-        <v>1817.51181327748</v>
+        <v>2308.344596227556</v>
       </c>
       <c r="D85">
-        <v>0.2004113015993796</v>
+        <v>0.3416215164639675</v>
       </c>
       <c r="E85">
-        <v>0.2037239931526803</v>
+        <v>0.3831068013132175</v>
       </c>
       <c r="F85">
-        <v>0.7377094737286137</v>
+        <v>0.5422591701363033</v>
       </c>
       <c r="G85">
-        <v>0.2585380504918456</v>
+        <v>0.4531673548732486</v>
       </c>
       <c r="H85">
-        <v>-903.1618313046567</v>
+        <v>-1143.527656902063</v>
       </c>
       <c r="I85">
-        <v>0.2192605098347043</v>
+        <v>0.2026106453319126</v>
       </c>
       <c r="J85">
-        <v>0.3534682446309475</v>
+        <v>0.3547438672224623</v>
       </c>
       <c r="K85" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="L85">
         <v>251</v>
       </c>
       <c r="M85" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -4920,37 +4686,37 @@
         <v>96</v>
       </c>
       <c r="C86">
-        <v>2198.612503993346</v>
+        <v>2314.877092259801</v>
       </c>
       <c r="D86">
-        <v>0.3200889306696107</v>
+        <v>0.3324317863381836</v>
       </c>
       <c r="E86">
-        <v>0.3345478352733928</v>
+        <v>0.3846512834655673</v>
       </c>
       <c r="F86">
-        <v>0.5935096196608595</v>
+        <v>0.5407246328224362</v>
       </c>
       <c r="G86">
-        <v>0.4033977559649914</v>
+        <v>0.4547275719861393</v>
       </c>
       <c r="H86">
-        <v>-1092.612929989983</v>
+        <v>-1146.79337540593</v>
       </c>
       <c r="I86">
-        <v>0.2011808287004884</v>
+        <v>0.1994973684970572</v>
       </c>
       <c r="J86">
-        <v>0.3321532395257065</v>
+        <v>0.3634545489436577</v>
       </c>
       <c r="K86" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="L86">
         <v>251</v>
       </c>
       <c r="M86" t="s">
-        <v>321</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:13">
@@ -4961,37 +4727,37 @@
         <v>97</v>
       </c>
       <c r="C87">
-        <v>2190.759945925304</v>
+        <v>2337.898949488496</v>
       </c>
       <c r="D87">
-        <v>0.280449089201157</v>
+        <v>0.3428726773054828</v>
       </c>
       <c r="E87">
-        <v>0.3413464805639617</v>
+        <v>0.3894849228260219</v>
       </c>
       <c r="F87">
-        <v>0.5856817491193784</v>
+        <v>0.5359895924667262</v>
       </c>
       <c r="G87">
-        <v>0.4103674064074871</v>
+        <v>0.4595962481850692</v>
       </c>
       <c r="H87">
-        <v>-1087.047059018148</v>
+        <v>-1158.409357609868</v>
       </c>
       <c r="I87">
-        <v>0.2066175179158703</v>
+        <v>0.1967052119120688</v>
       </c>
       <c r="J87">
-        <v>0.3783844299392451</v>
+        <v>0.3562491199559552</v>
       </c>
       <c r="K87" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="L87">
         <v>251</v>
       </c>
       <c r="M87" t="s">
-        <v>322</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -5002,37 +4768,37 @@
         <v>98</v>
       </c>
       <c r="C88">
-        <v>2155.09486476901</v>
+        <v>2334.672498962246</v>
       </c>
       <c r="D88">
-        <v>0.2621029907867504</v>
+        <v>0.3440027598905254</v>
       </c>
       <c r="E88">
-        <v>0.3222084056434865</v>
+        <v>0.3887103600312918</v>
       </c>
       <c r="F88">
-        <v>0.6063926835174885</v>
+        <v>0.536758518583182</v>
       </c>
       <c r="G88">
-        <v>0.3904252391591311</v>
+        <v>0.4588174012762416</v>
       </c>
       <c r="H88">
-        <v>-1070.927683352559</v>
+        <v>-1156.801639442418</v>
       </c>
       <c r="I88">
-        <v>0.2061124776388929</v>
+        <v>0.1965535698932231</v>
       </c>
       <c r="J88">
-        <v>0.3813504297346093</v>
+        <v>0.3549088842125621</v>
       </c>
       <c r="K88" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="L88">
         <v>251</v>
       </c>
       <c r="M88" t="s">
-        <v>323</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:13">
@@ -5043,1103 +4809,37 @@
         <v>99</v>
       </c>
       <c r="C89">
-        <v>2182.426387996833</v>
+        <v>2375.59511453459</v>
       </c>
       <c r="D89">
-        <v>0.280275533477929</v>
+        <v>0.3545697712419127</v>
       </c>
       <c r="E89">
-        <v>0.3298059375067488</v>
+        <v>0.3981456015855146</v>
       </c>
       <c r="F89">
-        <v>0.5984622427843945</v>
+        <v>0.527448350425235</v>
       </c>
       <c r="G89">
-        <v>0.3984323581221244</v>
+        <v>0.468269844953488</v>
       </c>
       <c r="H89">
-        <v>-1084.585319710206</v>
+        <v>-1177.240763812948</v>
       </c>
       <c r="I89">
-        <v>0.2055988199355127</v>
+        <v>0.1948728334306657</v>
       </c>
       <c r="J89">
-        <v>0.3707920644536579</v>
+        <v>0.351806634898936</v>
       </c>
       <c r="K89" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="L89">
         <v>251</v>
       </c>
       <c r="M89" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="1">
-        <v>88</v>
-      </c>
-      <c r="B90" t="s">
-        <v>100</v>
-      </c>
-      <c r="C90">
-        <v>2215.733191149013</v>
-      </c>
-      <c r="D90">
-        <v>0.283897456604054</v>
-      </c>
-      <c r="E90">
-        <v>0.3389266114412856</v>
-      </c>
-      <c r="F90">
-        <v>0.5890005921596675</v>
-      </c>
-      <c r="G90">
-        <v>0.4079730113436946</v>
-      </c>
-      <c r="H90">
-        <v>-1101.208378548463</v>
-      </c>
-      <c r="I90">
-        <v>0.204992427184315</v>
-      </c>
-      <c r="J90">
-        <v>0.3738444101021235</v>
-      </c>
-      <c r="K90" t="s">
-        <v>214</v>
-      </c>
-      <c r="L90">
-        <v>251</v>
-      </c>
-      <c r="M90" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="1">
-        <v>89</v>
-      </c>
-      <c r="B91" t="s">
-        <v>101</v>
-      </c>
-      <c r="C91">
-        <v>2169.668245001839</v>
-      </c>
-      <c r="D91">
-        <v>0.2707527374382097</v>
-      </c>
-      <c r="E91">
-        <v>0.3261650718223467</v>
-      </c>
-      <c r="F91">
-        <v>0.6022664147961343</v>
-      </c>
-      <c r="G91">
-        <v>0.394604101604092</v>
-      </c>
-      <c r="H91">
-        <v>-1078.231439826278</v>
-      </c>
-      <c r="I91">
-        <v>0.2054473063785659</v>
-      </c>
-      <c r="J91">
-        <v>0.3764758527780807</v>
-      </c>
-      <c r="K91" t="s">
-        <v>215</v>
-      </c>
-      <c r="L91">
-        <v>251</v>
-      </c>
-      <c r="M91" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>102</v>
-      </c>
-      <c r="C92">
-        <v>2184.587551039055</v>
-      </c>
-      <c r="D92">
-        <v>0.2810659052477245</v>
-      </c>
-      <c r="E92">
-        <v>0.3304573044786796</v>
-      </c>
-      <c r="F92">
-        <v>0.5977796017778648</v>
-      </c>
-      <c r="G92">
-        <v>0.3991153444719807</v>
-      </c>
-      <c r="H92">
-        <v>-1085.654547093534</v>
-      </c>
-      <c r="I92">
-        <v>0.2055071479218235</v>
-      </c>
-      <c r="J92">
-        <v>0.3705451272500825</v>
-      </c>
-      <c r="K92" t="s">
-        <v>216</v>
-      </c>
-      <c r="L92">
-        <v>251</v>
-      </c>
-      <c r="M92" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="1">
-        <v>91</v>
-      </c>
-      <c r="B93" t="s">
-        <v>103</v>
-      </c>
-      <c r="C93">
-        <v>2364.349076757194</v>
-      </c>
-      <c r="D93">
-        <v>0.3410854944446781</v>
-      </c>
-      <c r="E93">
-        <v>0.3906756929787492</v>
-      </c>
-      <c r="F93">
-        <v>0.5353041541304443</v>
-      </c>
-      <c r="G93">
-        <v>0.4607810012831616</v>
-      </c>
-      <c r="H93">
-        <v>-1172.598960073378</v>
-      </c>
-      <c r="I93">
-        <v>0.2026050001670303</v>
-      </c>
-      <c r="J93">
-        <v>0.3606995940163047</v>
-      </c>
-      <c r="K93" t="s">
-        <v>217</v>
-      </c>
-      <c r="L93">
-        <v>251</v>
-      </c>
-      <c r="M93" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="1">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>104</v>
-      </c>
-      <c r="C94">
-        <v>2213.599638778765</v>
-      </c>
-      <c r="D94">
-        <v>0.2945077018982378</v>
-      </c>
-      <c r="E94">
-        <v>0.3353336020574046</v>
-      </c>
-      <c r="F94">
-        <v>0.5929847261894966</v>
-      </c>
-      <c r="G94">
-        <v>0.4042683817312157</v>
-      </c>
-      <c r="H94">
-        <v>-1100.701025449276</v>
-      </c>
-      <c r="I94">
-        <v>0.2053748392895256</v>
-      </c>
-      <c r="J94">
-        <v>0.3629941635247697</v>
-      </c>
-      <c r="K94" t="s">
-        <v>218</v>
-      </c>
-      <c r="L94">
-        <v>251</v>
-      </c>
-      <c r="M94" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="1">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>105</v>
-      </c>
-      <c r="C95">
-        <v>2207.605861421884</v>
-      </c>
-      <c r="D95">
-        <v>0.2888737123530218</v>
-      </c>
-      <c r="E95">
-        <v>0.3337051958636768</v>
-      </c>
-      <c r="F95">
-        <v>0.594673254992614</v>
-      </c>
-      <c r="G95">
-        <v>0.4025671402258573</v>
-      </c>
-      <c r="H95">
-        <v>-1097.708968785539</v>
-      </c>
-      <c r="I95">
-        <v>0.2023059926662467</v>
-      </c>
-      <c r="J95">
-        <v>0.3662007716961504</v>
-      </c>
-      <c r="K95" t="s">
-        <v>219</v>
-      </c>
-      <c r="L95">
-        <v>251</v>
-      </c>
-      <c r="M95" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="1">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>106</v>
-      </c>
-      <c r="C96">
-        <v>2291.240618701678</v>
-      </c>
-      <c r="D96">
-        <v>0.3223374180479864</v>
-      </c>
-      <c r="E96">
-        <v>0.3637854363384871</v>
-      </c>
-      <c r="F96">
-        <v>0.5631042990203387</v>
-      </c>
-      <c r="G96">
-        <v>0.4335755025706658</v>
-      </c>
-      <c r="H96">
-        <v>-1137.910912869475</v>
-      </c>
-      <c r="I96">
-        <v>0.2029121107590844</v>
-      </c>
-      <c r="J96">
-        <v>0.3576114270831806</v>
-      </c>
-      <c r="K96" t="s">
-        <v>220</v>
-      </c>
-      <c r="L96">
-        <v>251</v>
-      </c>
-      <c r="M96" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
-      <c r="A97" s="1">
-        <v>95</v>
-      </c>
-      <c r="B97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C97">
-        <v>2241.638064703778</v>
-      </c>
-      <c r="D97">
-        <v>0.309319181650056</v>
-      </c>
-      <c r="E97">
-        <v>0.3432336287443313</v>
-      </c>
-      <c r="F97">
-        <v>0.5847908818881601</v>
-      </c>
-      <c r="G97">
-        <v>0.4124834817918192</v>
-      </c>
-      <c r="H97">
-        <v>-1114.623911309612</v>
-      </c>
-      <c r="I97">
-        <v>0.2028125928958251</v>
-      </c>
-      <c r="J97">
-        <v>0.3550823036120198</v>
-      </c>
-      <c r="K97" t="s">
-        <v>221</v>
-      </c>
-      <c r="L97">
-        <v>251</v>
-      </c>
-      <c r="M97" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
-      <c r="A98" s="1">
-        <v>96</v>
-      </c>
-      <c r="B98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C98">
-        <v>2179.708124243095</v>
-      </c>
-      <c r="D98">
-        <v>0.2607357478176451</v>
-      </c>
-      <c r="E98">
-        <v>0.327442449322391</v>
-      </c>
-      <c r="F98">
-        <v>0.6010654132625989</v>
-      </c>
-      <c r="G98">
-        <v>0.3959765512222344</v>
-      </c>
-      <c r="H98">
-        <v>-1083.521704589557</v>
-      </c>
-      <c r="I98">
-        <v>0.2072379266900699</v>
-      </c>
-      <c r="J98">
-        <v>0.3870978326161932</v>
-      </c>
-      <c r="K98" t="s">
-        <v>222</v>
-      </c>
-      <c r="L98">
-        <v>251</v>
-      </c>
-      <c r="M98" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
-      <c r="A99" s="1">
-        <v>97</v>
-      </c>
-      <c r="B99" t="s">
-        <v>109</v>
-      </c>
-      <c r="C99">
-        <v>2165.322672662656</v>
-      </c>
-      <c r="D99">
-        <v>0.266081552300111</v>
-      </c>
-      <c r="E99">
-        <v>0.3235116188193037</v>
-      </c>
-      <c r="F99">
-        <v>0.6051644728850701</v>
-      </c>
-      <c r="G99">
-        <v>0.391833294868924</v>
-      </c>
-      <c r="H99">
-        <v>-1076.321684364534</v>
-      </c>
-      <c r="I99">
-        <v>0.2069250221980741</v>
-      </c>
-      <c r="J99">
-        <v>0.3792933832160515</v>
-      </c>
-      <c r="K99" t="s">
-        <v>223</v>
-      </c>
-      <c r="L99">
-        <v>251</v>
-      </c>
-      <c r="M99" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
-      <c r="A100" s="1">
-        <v>98</v>
-      </c>
-      <c r="B100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C100">
-        <v>2153.962127997588</v>
-      </c>
-      <c r="D100">
-        <v>0.2645352036320885</v>
-      </c>
-      <c r="E100">
-        <v>0.3203383777404086</v>
-      </c>
-      <c r="F100">
-        <v>0.6084866898810221</v>
-      </c>
-      <c r="G100">
-        <v>0.3884786295587842</v>
-      </c>
-      <c r="H100">
-        <v>-1070.641497834985</v>
-      </c>
-      <c r="I100">
-        <v>0.2065027918181666</v>
-      </c>
-      <c r="J100">
-        <v>0.3786388974411302</v>
-      </c>
-      <c r="K100" t="s">
-        <v>224</v>
-      </c>
-      <c r="L100">
-        <v>251</v>
-      </c>
-      <c r="M100" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
-      <c r="A101" s="1">
-        <v>99</v>
-      </c>
-      <c r="B101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C101">
-        <v>2178.343066071851</v>
-      </c>
-      <c r="D101">
-        <v>0.2651998409855744</v>
-      </c>
-      <c r="E101">
-        <v>0.3272665936584671</v>
-      </c>
-      <c r="F101">
-        <v>0.6012311673889945</v>
-      </c>
-      <c r="G101">
-        <v>0.3957879142636009</v>
-      </c>
-      <c r="H101">
-        <v>-1082.802970300215</v>
-      </c>
-      <c r="I101">
-        <v>0.2065502503821629</v>
-      </c>
-      <c r="J101">
-        <v>0.3804401941461338</v>
-      </c>
-      <c r="K101" t="s">
-        <v>225</v>
-      </c>
-      <c r="L101">
-        <v>251</v>
-      </c>
-      <c r="M101" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
-      <c r="A102" s="1">
-        <v>100</v>
-      </c>
-      <c r="B102" t="s">
-        <v>112</v>
-      </c>
-      <c r="C102">
-        <v>2156.836184871517</v>
-      </c>
-      <c r="D102">
-        <v>0.268014656741799</v>
-      </c>
-      <c r="E102">
-        <v>0.3213644120035655</v>
-      </c>
-      <c r="F102">
-        <v>0.6073923565042262</v>
-      </c>
-      <c r="G102">
-        <v>0.3895598351404396</v>
-      </c>
-      <c r="H102">
-        <v>-1072.03875461799</v>
-      </c>
-      <c r="I102">
-        <v>0.20634952965918</v>
-      </c>
-      <c r="J102">
-        <v>0.3751248969154256</v>
-      </c>
-      <c r="K102" t="s">
-        <v>226</v>
-      </c>
-      <c r="L102">
-        <v>251</v>
-      </c>
-      <c r="M102" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
-      <c r="A103" s="1">
-        <v>101</v>
-      </c>
-      <c r="B103" t="s">
-        <v>113</v>
-      </c>
-      <c r="C103">
-        <v>2157.383875556725</v>
-      </c>
-      <c r="D103">
-        <v>0.267039367870281</v>
-      </c>
-      <c r="E103">
-        <v>0.3215282739880566</v>
-      </c>
-      <c r="F103">
-        <v>0.6072198098346663</v>
-      </c>
-      <c r="G103">
-        <v>0.3897329352777389</v>
-      </c>
-      <c r="H103">
-        <v>-1072.310683874039</v>
-      </c>
-      <c r="I103">
-        <v>0.2060457671637448</v>
-      </c>
-      <c r="J103">
-        <v>0.3758045045933808</v>
-      </c>
-      <c r="K103" t="s">
-        <v>227</v>
-      </c>
-      <c r="L103">
-        <v>251</v>
-      </c>
-      <c r="M103" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
-      <c r="A104" s="1">
-        <v>102</v>
-      </c>
-      <c r="B104" t="s">
-        <v>114</v>
-      </c>
-      <c r="C104">
-        <v>2174.281079905544</v>
-      </c>
-      <c r="D104">
-        <v>0.2704804694482114</v>
-      </c>
-      <c r="E104">
-        <v>0.3259309677372536</v>
-      </c>
-      <c r="F104">
-        <v>0.6026429726696713</v>
-      </c>
-      <c r="G104">
-        <v>0.3943857479956892</v>
-      </c>
-      <c r="H104">
-        <v>-1080.811690887223</v>
-      </c>
-      <c r="I104">
-        <v>0.2078416117635675</v>
-      </c>
-      <c r="J104">
-        <v>0.3753833014093858</v>
-      </c>
-      <c r="K104" t="s">
-        <v>228</v>
-      </c>
-      <c r="L104">
-        <v>251</v>
-      </c>
-      <c r="M104" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
-      <c r="A105" s="1">
-        <v>103</v>
-      </c>
-      <c r="B105" t="s">
-        <v>115</v>
-      </c>
-      <c r="C105">
-        <v>2233.337852521882</v>
-      </c>
-      <c r="D105">
-        <v>0.2799282011095037</v>
-      </c>
-      <c r="E105">
-        <v>0.3422031859773889</v>
-      </c>
-      <c r="F105">
-        <v>0.5857476652472514</v>
-      </c>
-      <c r="G105">
-        <v>0.4114000338049144</v>
-      </c>
-      <c r="H105">
-        <v>-1110.262497924877</v>
-      </c>
-      <c r="I105">
-        <v>0.2086053238404822</v>
-      </c>
-      <c r="J105">
-        <v>0.3769159296546192</v>
-      </c>
-      <c r="K105" t="s">
-        <v>229</v>
-      </c>
-      <c r="L105">
-        <v>251</v>
-      </c>
-      <c r="M105" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
-      <c r="A106" s="1">
-        <v>104</v>
-      </c>
-      <c r="B106" t="s">
-        <v>116</v>
-      </c>
-      <c r="C106">
-        <v>2150.304153777079</v>
-      </c>
-      <c r="D106">
-        <v>0.265845641023798</v>
-      </c>
-      <c r="E106">
-        <v>0.3192532811569732</v>
-      </c>
-      <c r="F106">
-        <v>0.6096297150994598</v>
-      </c>
-      <c r="G106">
-        <v>0.3873305357540587</v>
-      </c>
-      <c r="H106">
-        <v>-1068.822689593333</v>
-      </c>
-      <c r="I106">
-        <v>0.2069556274026501</v>
-      </c>
-      <c r="J106">
-        <v>0.3763072715137855</v>
-      </c>
-      <c r="K106" t="s">
-        <v>230</v>
-      </c>
-      <c r="L106">
-        <v>251</v>
-      </c>
-      <c r="M106" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
-      <c r="A107" s="1">
-        <v>105</v>
-      </c>
-      <c r="B107" t="s">
-        <v>117</v>
-      </c>
-      <c r="C107">
-        <v>2148.921814681556</v>
-      </c>
-      <c r="D107">
-        <v>0.2643618045449861</v>
-      </c>
-      <c r="E107">
-        <v>0.3191698942446124</v>
-      </c>
-      <c r="F107">
-        <v>0.6096907410613031</v>
-      </c>
-      <c r="G107">
-        <v>0.3872356193794336</v>
-      </c>
-      <c r="H107">
-        <v>-1068.076403909322</v>
-      </c>
-      <c r="I107">
-        <v>0.2068861823480732</v>
-      </c>
-      <c r="J107">
-        <v>0.3776045320441507</v>
-      </c>
-      <c r="K107" t="s">
-        <v>231</v>
-      </c>
-      <c r="L107">
-        <v>251</v>
-      </c>
-      <c r="M107" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108" t="s">
-        <v>118</v>
-      </c>
-      <c r="C108">
-        <v>2225.65360263139</v>
-      </c>
-      <c r="D108">
-        <v>0.2938322268673288</v>
-      </c>
-      <c r="E108">
-        <v>0.3496579605548265</v>
-      </c>
-      <c r="F108">
-        <v>0.5772331955129932</v>
-      </c>
-      <c r="G108">
-        <v>0.4190197109413348</v>
-      </c>
-      <c r="H108">
-        <v>-1104.655957296416</v>
-      </c>
-      <c r="I108">
-        <v>0.2037701572076859</v>
-      </c>
-      <c r="J108">
-        <v>0.372149144601623</v>
-      </c>
-      <c r="K108" t="s">
-        <v>232</v>
-      </c>
-      <c r="L108">
-        <v>251</v>
-      </c>
-      <c r="M108" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109" t="s">
-        <v>119</v>
-      </c>
-      <c r="C109">
-        <v>2153.285353636091</v>
-      </c>
-      <c r="D109">
-        <v>0.2655287400324605</v>
-      </c>
-      <c r="E109">
-        <v>0.3204208963075101</v>
-      </c>
-      <c r="F109">
-        <v>0.6083765472695695</v>
-      </c>
-      <c r="G109">
-        <v>0.3885602932956994</v>
-      </c>
-      <c r="H109">
-        <v>-1070.253977036583</v>
-      </c>
-      <c r="I109">
-        <v>0.2071643159668617</v>
-      </c>
-      <c r="J109">
-        <v>0.3776630072540775</v>
-      </c>
-      <c r="K109" t="s">
-        <v>233</v>
-      </c>
-      <c r="L109">
-        <v>251</v>
-      </c>
-      <c r="M109" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
-      <c r="A110" s="1">
-        <v>108</v>
-      </c>
-      <c r="B110" t="s">
-        <v>120</v>
-      </c>
-      <c r="C110">
-        <v>2161.205934644324</v>
-      </c>
-      <c r="D110">
-        <v>0.2674531647948714</v>
-      </c>
-      <c r="E110">
-        <v>0.3230542119557457</v>
-      </c>
-      <c r="F110">
-        <v>0.6055827360494066</v>
-      </c>
-      <c r="G110">
-        <v>0.3913366268539618</v>
-      </c>
-      <c r="H110">
-        <v>-1074.138756565442</v>
-      </c>
-      <c r="I110">
-        <v>0.2067420484391262</v>
-      </c>
-      <c r="J110">
-        <v>0.3776560623811892</v>
-      </c>
-      <c r="K110" t="s">
-        <v>234</v>
-      </c>
-      <c r="L110">
-        <v>251</v>
-      </c>
-      <c r="M110" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
-      <c r="A111" s="1">
-        <v>109</v>
-      </c>
-      <c r="B111" t="s">
-        <v>121</v>
-      </c>
-      <c r="C111">
-        <v>2181.019539876409</v>
-      </c>
-      <c r="D111">
-        <v>0.2779699364976725</v>
-      </c>
-      <c r="E111">
-        <v>0.3284841356194609</v>
-      </c>
-      <c r="F111">
-        <v>0.5999203922889157</v>
-      </c>
-      <c r="G111">
-        <v>0.3970597937095005</v>
-      </c>
-      <c r="H111">
-        <v>-1084.052981978477</v>
-      </c>
-      <c r="I111">
-        <v>0.2067722076834561</v>
-      </c>
-      <c r="J111">
-        <v>0.3723258775999664</v>
-      </c>
-      <c r="K111" t="s">
-        <v>235</v>
-      </c>
-      <c r="L111">
-        <v>251</v>
-      </c>
-      <c r="M111" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
-      <c r="A112" s="1">
-        <v>110</v>
-      </c>
-      <c r="B112" t="s">
-        <v>122</v>
-      </c>
-      <c r="C112">
-        <v>2173.740773230967</v>
-      </c>
-      <c r="D112">
-        <v>0.2654437721815725</v>
-      </c>
-      <c r="E112">
-        <v>0.3264600542850838</v>
-      </c>
-      <c r="F112">
-        <v>0.6020315639274644</v>
-      </c>
-      <c r="G112">
-        <v>0.3949303953158114</v>
-      </c>
-      <c r="H112">
-        <v>-1080.418256041548</v>
-      </c>
-      <c r="I112">
-        <v>0.2073836139818905</v>
-      </c>
-      <c r="J112">
-        <v>0.3813434406115787</v>
-      </c>
-      <c r="K112" t="s">
-        <v>236</v>
-      </c>
-      <c r="L112">
-        <v>251</v>
-      </c>
-      <c r="M112" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
-      <c r="A113" s="1">
-        <v>111</v>
-      </c>
-      <c r="B113" t="s">
-        <v>123</v>
-      </c>
-      <c r="C113">
-        <v>2216.833939684202</v>
-      </c>
-      <c r="D113">
-        <v>0.2862826834578424</v>
-      </c>
-      <c r="E113">
-        <v>0.3374919330388297</v>
-      </c>
-      <c r="F113">
-        <v>0.5906370935745672</v>
-      </c>
-      <c r="G113">
-        <v>0.4065017464682059</v>
-      </c>
-      <c r="H113">
-        <v>-1102.078290121966</v>
-      </c>
-      <c r="I113">
-        <v>0.2012763774935107</v>
-      </c>
-      <c r="J113">
-        <v>0.3693455348634873</v>
-      </c>
-      <c r="K113" t="s">
-        <v>237</v>
-      </c>
-      <c r="L113">
-        <v>251</v>
-      </c>
-      <c r="M113" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
-      <c r="A114" s="1">
-        <v>112</v>
-      </c>
-      <c r="B114" t="s">
-        <v>124</v>
-      </c>
-      <c r="C114">
-        <v>2210.191743766852</v>
-      </c>
-      <c r="D114">
-        <v>0.2851159692749051</v>
-      </c>
-      <c r="E114">
-        <v>0.3357384731957065</v>
-      </c>
-      <c r="F114">
-        <v>0.592448352593407</v>
-      </c>
-      <c r="G114">
-        <v>0.4046716259892846</v>
-      </c>
-      <c r="H114">
-        <v>-1098.754584794481</v>
-      </c>
-      <c r="I114">
-        <v>0.2022076172425496</v>
-      </c>
-      <c r="J114">
-        <v>0.369272296538572</v>
-      </c>
-      <c r="K114" t="s">
-        <v>238</v>
-      </c>
-      <c r="L114">
-        <v>251</v>
-      </c>
-      <c r="M114" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="1">
-        <v>113</v>
-      </c>
-      <c r="B115" t="s">
-        <v>125</v>
-      </c>
-      <c r="C115">
-        <v>2231.371256815528</v>
-      </c>
-      <c r="D115">
-        <v>0.2917226673431486</v>
-      </c>
-      <c r="E115">
-        <v>0.3414621045272196</v>
-      </c>
-      <c r="F115">
-        <v>0.5865308193628593</v>
-      </c>
-      <c r="G115">
-        <v>0.4106329412033184</v>
-      </c>
-      <c r="H115">
-        <v>-1109.321373164079</v>
-      </c>
-      <c r="I115">
-        <v>0.201118760825539</v>
-      </c>
-      <c r="J115">
-        <v>0.3671764964303596</v>
-      </c>
-      <c r="K115" t="s">
-        <v>239</v>
-      </c>
-      <c r="L115">
-        <v>251</v>
-      </c>
-      <c r="M115" t="s">
-        <v>350</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
